--- a/future.xlsx
+++ b/future.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="农产品" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,14 +70,26 @@
     <t>橡胶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -176,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +243,12 @@
           <color rgb="FFFF7C80"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -296,16 +314,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -327,7 +339,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -336,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -348,10 +360,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -360,40 +372,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -402,7 +408,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -414,28 +420,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +454,135 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,6 +595,8 @@
   <colors>
     <mruColors>
       <color rgb="FFFF3399"/>
+      <color rgb="FFFF66CC"/>
+      <color rgb="FFFF33CC"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF6699"/>
       <color rgb="FF008000"/>
@@ -467,8 +604,6 @@
       <color rgb="FFFF3300"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FFFF9933"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -775,629 +910,629 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="9" style="24"/>
-    <col min="5" max="5" width="10.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="5"/>
-    <col min="9" max="9" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="9" style="22"/>
+    <col min="5" max="5" width="10.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <f>5946*0.97</f>
         <v>5767.62</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="15"/>
-      <c r="D3" s="33">
+      <c r="A3" s="5"/>
+      <c r="B3" s="13"/>
+      <c r="D3" s="29">
         <v>5754</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="I3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>42081</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16">
         <v>5362</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>42082</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>42083</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>42086</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>42087</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>42088</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>42089</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>42090</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>42093</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>42094</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="21">
         <v>5352</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>42095</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>42096</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>42097</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>42100</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>42101</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>42102</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>42103</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>42104</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>42107</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>42108</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>42109</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17">
         <v>5570</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>42110</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17">
         <v>5584</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>42111</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>42114</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17">
         <v>5638</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>42115</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17">
         <v>5686</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>42116</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>42117</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>42118</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>42121</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17">
         <v>5698</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>42122</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>42123</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>42124</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>42125</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>42128</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18">
         <v>5806</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>42129</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18">
         <v>5878</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>42130</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18">
         <v>5946</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>42131</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>42132</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="18"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1428,85 +1563,85 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N81"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="10.375" style="32" customWidth="1"/>
-    <col min="12" max="12" width="9" style="40"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="10.375" style="28" customWidth="1"/>
+    <col min="12" max="12" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="5" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <f>46030*0.97</f>
         <v>44649.1</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="O2">
@@ -1515,76 +1650,76 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="15"/>
-      <c r="D3" s="37">
+      <c r="A3" s="5"/>
+      <c r="B3" s="13"/>
+      <c r="D3" s="33">
         <v>45660</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="38">
+      <c r="E3" s="27"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="34">
         <v>17470</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="28">
+      <c r="A4" s="24">
         <v>42018</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="31">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="27">
         <v>40040</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="L4" s="41">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="37">
         <v>15580</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="28">
+      <c r="A5" s="24">
         <v>42019</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="28">
+      <c r="A6" s="24">
         <v>42020</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="28">
+      <c r="A7" s="24">
         <v>42023</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="28">
+      <c r="A8" s="24">
         <v>42024</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="28">
+      <c r="A9" s="24">
         <v>42025</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>42026</v>
       </c>
       <c r="J10">
@@ -1592,49 +1727,49 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="28">
+      <c r="A11" s="24">
         <v>42027</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="28">
+      <c r="A12" s="24">
         <v>42030</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <v>39060</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="28">
+      <c r="A13" s="24">
         <v>42031</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="28">
+      <c r="A14" s="24">
         <v>42032</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="27">
         <v>39380</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="28">
+      <c r="A15" s="24">
         <v>42033</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="27">
         <v>38930</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="28">
+      <c r="A16" s="24">
         <v>42034</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <v>38660</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="28">
+      <c r="A17" s="24">
         <v>42037</v>
       </c>
       <c r="C17">
@@ -1642,7 +1777,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="28">
+      <c r="A18" s="24">
         <v>42038</v>
       </c>
       <c r="C18">
@@ -1650,7 +1785,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="28">
+      <c r="A19" s="24">
         <v>42039</v>
       </c>
       <c r="C19">
@@ -1661,12 +1796,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="28">
+      <c r="A20" s="24">
         <v>42040</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="28">
+      <c r="A21" s="24">
         <v>42041</v>
       </c>
       <c r="C21">
@@ -1677,30 +1812,30 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="28">
+      <c r="A22" s="24">
         <v>42044</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="28">
+      <c r="A23" s="24">
         <v>42045</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="38">
         <v>16390</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="28">
+      <c r="A24" s="24">
         <v>42046</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="28">
+      <c r="A25" s="24">
         <v>42047</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="28">
+      <c r="A26" s="24">
         <v>42048</v>
       </c>
       <c r="C26">
@@ -1708,7 +1843,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="28">
+      <c r="A27" s="24">
         <v>42051</v>
       </c>
       <c r="C27">
@@ -1716,17 +1851,17 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="28">
+      <c r="A28" s="24">
         <v>42052</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="28">
+      <c r="A29" s="24">
         <v>42060</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="28">
+      <c r="A30" s="24">
         <v>42061</v>
       </c>
       <c r="C30">
@@ -1734,7 +1869,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="28">
+      <c r="A31" s="24">
         <v>42062</v>
       </c>
       <c r="C31">
@@ -1742,20 +1877,20 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="28">
+      <c r="A32" s="24">
         <v>42065</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>42970</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="28">
+      <c r="A33" s="24">
         <v>42066</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="28">
+      <c r="A34" s="24">
         <v>42067</v>
       </c>
       <c r="M34">
@@ -1763,7 +1898,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="28">
+      <c r="A35" s="24">
         <v>42068</v>
       </c>
       <c r="M35">
@@ -1771,7 +1906,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="28">
+      <c r="A36" s="24">
         <v>42069</v>
       </c>
       <c r="M36">
@@ -1779,17 +1914,17 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="28">
+      <c r="A37" s="24">
         <v>42072</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="28">
+      <c r="A38" s="24">
         <v>42073</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="28">
+      <c r="A39" s="24">
         <v>42074</v>
       </c>
       <c r="M39">
@@ -1797,45 +1932,45 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="28">
+      <c r="A40" s="24">
         <v>42075</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="28">
+      <c r="A41" s="24">
         <v>42076</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="28">
+      <c r="A42" s="24">
         <v>42079</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="28">
+      <c r="A43" s="24">
         <v>42080</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>42081</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44" s="32">
         <v>15610</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>42082</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>42083</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>42086</v>
       </c>
       <c r="C47">
@@ -1843,7 +1978,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>42087</v>
       </c>
       <c r="C48">
@@ -1851,22 +1986,22 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>42088</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>42089</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>42090</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>42093</v>
       </c>
       <c r="C52">
@@ -1874,22 +2009,22 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>42094</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>42095</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>42096</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>42097</v>
       </c>
       <c r="I56">
@@ -1897,7 +2032,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>42100</v>
       </c>
       <c r="I57">
@@ -1905,22 +2040,22 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>42101</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>42102</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>42103</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>42104</v>
       </c>
       <c r="J61">
@@ -1928,7 +2063,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>42107</v>
       </c>
       <c r="J62">
@@ -1936,17 +2071,17 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>42108</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>42109</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>42110</v>
       </c>
       <c r="J65">
@@ -1954,7 +2089,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>42111</v>
       </c>
       <c r="J66">
@@ -1962,483 +2097,483 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>42114</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>42115</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>42116</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>42117</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>42118</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>42121</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
         <v>16830</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>42122</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
         <v>17025</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>42123</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>42124</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5">
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
         <v>17040</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="A76" s="2">
         <v>42125</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>42128</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17">
         <v>45640</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5">
+      <c r="D77" s="18"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
         <v>17235</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="A78" s="2">
         <v>42129</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17">
         <v>45650</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>42130</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="18">
         <v>46030</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5">
+      <c r="E79" s="23"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
         <v>17390</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="A80" s="2">
         <v>42131</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="4">
+      <c r="A81" s="2">
         <v>42132</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B89" s="19"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
     </row>
     <row r="97" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
     </row>
     <row r="98" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
     </row>
     <row r="99" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
     </row>
     <row r="101" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
     </row>
     <row r="102" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
     </row>
     <row r="103" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
     </row>
     <row r="104" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2467,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -2475,1033 +2610,1033 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="9" style="5"/>
-    <col min="5" max="5" width="9" style="40"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="5" max="5" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <f>15005*0.97</f>
         <v>14554.85</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="15"/>
-      <c r="D3" s="38">
+      <c r="A3" s="5"/>
+      <c r="B3" s="13"/>
+      <c r="D3" s="34">
         <v>14470</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="40"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="28">
+      <c r="A4" s="24">
         <v>41984</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="44">
         <v>11745</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="28">
+      <c r="A5" s="24">
         <v>41985</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="28">
+      <c r="A6" s="24">
         <v>41988</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>12320</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="28">
+      <c r="A7" s="24">
         <v>41989</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="28">
+      <c r="A8" s="24">
         <v>41990</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="28">
+      <c r="A9" s="24">
         <v>41991</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>41992</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="28">
+      <c r="A11" s="24">
         <v>41995</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="28">
+      <c r="A12" s="24">
         <v>41996</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="28">
+      <c r="A13" s="24">
         <v>41997</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="28">
+      <c r="A14" s="24">
         <v>41998</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="28">
+      <c r="A15" s="24">
         <v>41999</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="28">
+      <c r="A16" s="24">
         <v>42002</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>12480</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="28">
+      <c r="A17" s="24">
         <v>42003</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13">
         <v>13060</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="5"/>
-      <c r="L17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="28">
+      <c r="A18" s="24">
         <v>42004</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="47">
+      <c r="B18" s="13"/>
+      <c r="C18" s="43">
         <v>13245</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="5"/>
-      <c r="L18" s="40"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="28">
+      <c r="A19" s="24">
         <v>42005</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="44"/>
-      <c r="L19" s="40"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="40"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="28">
+      <c r="A20" s="24">
         <v>42006</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="44"/>
-      <c r="L20" s="40"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="40"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="28">
+      <c r="A21" s="24">
         <v>42009</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="44"/>
-      <c r="L21" s="40"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="40"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="28">
+      <c r="A22" s="24">
         <v>42010</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="44"/>
-      <c r="L22" s="40"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="40"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="28">
+      <c r="A23" s="24">
         <v>42011</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="41"/>
-      <c r="L23" s="40"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="37"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="28">
+      <c r="A24" s="24">
         <v>42012</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="44"/>
-      <c r="L24" s="40"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="40"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="28">
+      <c r="A25" s="24">
         <v>42013</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="41"/>
-      <c r="L25" s="40"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="37"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="28">
+      <c r="A26" s="24">
         <v>42016</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="44"/>
-      <c r="L26" s="40"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="40"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="28">
+      <c r="A27" s="24">
         <v>42017</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="40"/>
       <c r="F27">
         <v>12590</v>
       </c>
-      <c r="L27" s="40"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="28">
+      <c r="A28" s="24">
         <v>42018</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="36">
+      <c r="D28" s="4"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="32">
         <v>12170</v>
       </c>
-      <c r="L28" s="40"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="28">
+      <c r="A29" s="24">
         <v>42019</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="44"/>
-      <c r="L29" s="40"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="40"/>
+      <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="28">
+      <c r="A30" s="24">
         <v>42020</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="44"/>
-      <c r="L30" s="40"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="40"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="28">
+      <c r="A31" s="24">
         <v>42023</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="44"/>
-      <c r="L31" s="40"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="40"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="28">
+      <c r="A32" s="24">
         <v>42024</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="44"/>
-      <c r="J32" s="20"/>
-      <c r="L32" s="40"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="40"/>
+      <c r="J32" s="18"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="28">
+      <c r="A33" s="24">
         <v>42025</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>12695</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="44"/>
-      <c r="L33" s="40"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="40"/>
+      <c r="L33" s="36"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="28">
+      <c r="A34" s="24">
         <v>42026</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>12830</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="44"/>
-      <c r="L34" s="40"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="40"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="28">
+      <c r="A35" s="24">
         <v>42027</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="44"/>
-      <c r="L35" s="40"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="40"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="28">
+      <c r="A36" s="24">
         <v>42030</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="44"/>
-      <c r="L36" s="40"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="40"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="28">
+      <c r="A37" s="24">
         <v>42031</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>12905</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="44"/>
-      <c r="L37" s="40"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="40"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="28">
+      <c r="A38" s="24">
         <v>42032</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="44"/>
-      <c r="L38" s="40"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="40"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="28">
+      <c r="A39" s="24">
         <v>42033</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="44"/>
-      <c r="L39" s="40"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="40"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="28">
+      <c r="A40" s="24">
         <v>42034</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="44"/>
-      <c r="L40" s="40"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="40"/>
+      <c r="L40" s="36"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="28">
+      <c r="A41" s="24">
         <v>42037</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="44"/>
-      <c r="L41" s="40"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="40"/>
+      <c r="L41" s="36"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="28">
+      <c r="A42" s="24">
         <v>42038</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="44"/>
-      <c r="L42" s="40"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="40"/>
+      <c r="L42" s="36"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="28">
+      <c r="A43" s="24">
         <v>42039</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>13060</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="44"/>
-      <c r="L43" s="40"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="40"/>
+      <c r="L43" s="36"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="28">
+      <c r="A44" s="24">
         <v>42040</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="44"/>
-      <c r="L44" s="40"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="40"/>
+      <c r="L44" s="36"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="28">
+      <c r="A45" s="24">
         <v>42041</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>13365</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="44"/>
-      <c r="L45" s="40"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="40"/>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="28">
+      <c r="A46" s="24">
         <v>42044</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="44"/>
-      <c r="L46" s="40"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="40"/>
+      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="28">
+      <c r="A47" s="24">
         <v>42045</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="44"/>
-      <c r="L47" s="40"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="40"/>
+      <c r="L47" s="36"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="28">
+      <c r="A48" s="24">
         <v>42046</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="44"/>
-      <c r="L48" s="40"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="40"/>
+      <c r="L48" s="36"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="28">
+      <c r="A49" s="24">
         <v>42047</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="44"/>
-      <c r="L49" s="40"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="40"/>
+      <c r="L49" s="36"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="28">
+      <c r="A50" s="24">
         <v>42048</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>13400</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="44"/>
-      <c r="L50" s="40"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="40"/>
+      <c r="L50" s="36"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="28">
+      <c r="A51" s="24">
         <v>42051</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="44"/>
-      <c r="L51" s="40"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="40"/>
+      <c r="L51" s="36"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="28">
+      <c r="A52" s="24">
         <v>42052</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="44"/>
-      <c r="L52" s="40"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="40"/>
+      <c r="L52" s="36"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="28">
+      <c r="A53" s="24">
         <v>42060</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="44"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="20"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="40"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="18"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="28">
+      <c r="A54" s="24">
         <v>42061</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C54" s="45">
         <v>13575</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="44"/>
-      <c r="L54" s="40"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="40"/>
+      <c r="L54" s="36"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="28">
+      <c r="A55" s="24">
         <v>42062</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="44"/>
-      <c r="L55" s="40"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="40"/>
+      <c r="L55" s="36"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="28">
+      <c r="A56" s="24">
         <v>42065</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="44"/>
-      <c r="L56" s="40"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="40"/>
+      <c r="L56" s="36"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="28">
+      <c r="A57" s="24">
         <v>42066</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="44"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="40"/>
       <c r="F57">
         <v>12895</v>
       </c>
-      <c r="L57" s="40"/>
+      <c r="L57" s="36"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="28">
+      <c r="A58" s="24">
         <v>42067</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="44"/>
-      <c r="L58" s="40"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="40"/>
+      <c r="L58" s="36"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="28">
+      <c r="A59" s="24">
         <v>42068</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="44"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="40"/>
       <c r="F59">
         <v>12810</v>
       </c>
-      <c r="L59" s="40"/>
+      <c r="L59" s="36"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="28">
+      <c r="A60" s="24">
         <v>42069</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="44"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="40"/>
       <c r="F60">
         <v>12700</v>
       </c>
-      <c r="L60" s="40"/>
+      <c r="L60" s="36"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="28">
+      <c r="A61" s="24">
         <v>42072</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="44"/>
-      <c r="L61" s="40"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="40"/>
+      <c r="L61" s="36"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="28">
+      <c r="A62" s="24">
         <v>42073</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="44"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="40"/>
       <c r="F62">
         <v>12490</v>
       </c>
-      <c r="L62" s="40"/>
+      <c r="L62" s="36"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="28">
+      <c r="A63" s="24">
         <v>42074</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="44"/>
-      <c r="L63" s="40"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="40"/>
+      <c r="L63" s="36"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="28">
+      <c r="A64" s="24">
         <v>42075</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="44"/>
-      <c r="L64" s="40"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="40"/>
+      <c r="L64" s="36"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="28">
+      <c r="A65" s="24">
         <v>42076</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="44"/>
-      <c r="L65" s="40"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="40"/>
+      <c r="L65" s="36"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="28">
+      <c r="A66" s="24">
         <v>42079</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="44"/>
-      <c r="L66" s="40"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="40"/>
+      <c r="L66" s="36"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="28">
+      <c r="A67" s="24">
         <v>42080</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="44"/>
-      <c r="L67" s="40"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="40"/>
+      <c r="L67" s="36"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>42081</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="44"/>
-      <c r="L68" s="40"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="40"/>
+      <c r="L68" s="36"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>42082</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="44"/>
-      <c r="L69" s="40"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="40"/>
+      <c r="L69" s="36"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>42083</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="44"/>
-      <c r="L70" s="40"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="40"/>
+      <c r="L70" s="36"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>42086</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="3">
         <v>12990</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="44"/>
-      <c r="L71" s="40"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="40"/>
+      <c r="L71" s="36"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>42087</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="3">
         <v>13050</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="44"/>
-      <c r="L72" s="40"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="40"/>
+      <c r="L72" s="36"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>42088</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="44"/>
-      <c r="L73" s="40"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="40"/>
+      <c r="L73" s="36"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>42089</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="3">
         <v>13065</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="44"/>
-      <c r="L74" s="40"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="40"/>
+      <c r="L74" s="36"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>42090</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="44"/>
-      <c r="L75" s="40"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="40"/>
+      <c r="L75" s="36"/>
     </row>
     <row r="76" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="A76" s="2">
         <v>42093</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12">
         <v>12640</v>
       </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="L76" s="40"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="L76" s="36"/>
     </row>
     <row r="77" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>42094</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3">
         <v>12540</v>
       </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="L77" s="40"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="L77" s="36"/>
     </row>
     <row r="78" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="A78" s="2">
         <v>42095</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="L78" s="40"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="L78" s="36"/>
     </row>
     <row r="79" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>42096</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="L79" s="40"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="L79" s="36"/>
     </row>
     <row r="80" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="A80" s="2">
         <v>42097</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="L80" s="40"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="L80" s="36"/>
     </row>
     <row r="81" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="4">
+      <c r="A81" s="2">
         <v>42100</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="L81" s="40"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="L81" s="36"/>
     </row>
     <row r="82" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="4">
+      <c r="A82" s="2">
         <v>42101</v>
       </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="L82" s="40"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="L82" s="36"/>
     </row>
     <row r="83" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="4">
+      <c r="A83" s="2">
         <v>42102</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="L83" s="40"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="L83" s="36"/>
     </row>
     <row r="84" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+      <c r="A84" s="2">
         <v>42103</v>
       </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="49">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="45">
         <v>12300</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="L84" s="40"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="L84" s="36"/>
     </row>
     <row r="85" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="4">
+      <c r="A85" s="2">
         <v>42104</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="L85" s="40"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="L85" s="36"/>
     </row>
     <row r="86" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A86" s="4">
+      <c r="A86" s="2">
         <v>42107</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="L86" s="40"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="L86" s="36"/>
     </row>
     <row r="87" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>42108</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="17">
         <v>12670</v>
       </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="L87" s="40"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="L87" s="36"/>
     </row>
     <row r="88" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="4">
+      <c r="A88" s="2">
         <v>42109</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="L88" s="40"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="L88" s="36"/>
     </row>
     <row r="89" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A89" s="4">
+      <c r="A89" s="2">
         <v>42110</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="17">
         <v>12760</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="L89" s="40"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="L89" s="36"/>
     </row>
     <row r="90" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A90" s="4">
+      <c r="A90" s="2">
         <v>42111</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="L90" s="40"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="L90" s="36"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A91" s="4">
+      <c r="A91" s="2">
         <v>42114</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A92" s="4">
+      <c r="A92" s="2">
         <v>42115</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="3">
         <v>13230</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A93" s="4">
+      <c r="A93" s="2">
         <v>42116</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A94" s="4">
+      <c r="A94" s="2">
         <v>42117</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="3">
         <v>13335</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A95" s="4">
+      <c r="A95" s="2">
         <v>42118</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="3">
         <v>13460</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A96" s="4">
+      <c r="A96" s="2">
         <v>42121</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="3">
         <v>14195</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="4">
+      <c r="A97" s="2">
         <v>42122</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="3">
         <v>14280</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="4">
+      <c r="A98" s="2">
         <v>42123</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="4">
+      <c r="A99" s="2">
         <v>42124</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="3">
         <v>14470</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="4">
+      <c r="A100" s="2">
         <v>42125</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="4">
+      <c r="A101" s="2">
         <v>42128</v>
       </c>
-      <c r="D101" s="50">
+      <c r="D101" s="46">
         <v>15005</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="4">
+      <c r="A102" s="2">
         <v>42129</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="4">
+      <c r="A103" s="2">
         <v>42130</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="4">
+      <c r="A104" s="2">
         <v>42131</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="4">
+      <c r="A105" s="2">
         <v>42132</v>
       </c>
     </row>
@@ -3530,13 +3665,1045 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="9" style="58"/>
+    <col min="4" max="4" width="9.625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="58"/>
+    <col min="9" max="10" width="9" style="87"/>
+    <col min="11" max="11" width="9.625" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="48"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <f>1175.2*1.03</f>
+        <v>1210.4560000000001</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <f>16.72*0.94</f>
+        <v>15.716799999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="13"/>
+      <c r="E3" s="65">
+        <v>1142.9000000000001</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="80">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="24">
+        <v>42018</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="24">
+        <v>42019</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="L5" s="63"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="24">
+        <v>42020</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="53"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="24">
+        <v>42023</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="53"/>
+      <c r="L7" s="63"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="24">
+        <v>42024</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="53"/>
+      <c r="L8" s="63"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="24">
+        <v>42025</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="53"/>
+      <c r="L9" s="63"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="24">
+        <v>42026</v>
+      </c>
+      <c r="D10" s="66">
+        <v>1301.5</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="K10" s="79">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="L10" s="63"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="24">
+        <v>42027</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="53"/>
+      <c r="L11" s="63"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="24">
+        <v>42030</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="24">
+        <v>42031</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="53"/>
+      <c r="L13" s="63"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="24">
+        <v>42032</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="52"/>
+      <c r="L14" s="63"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="24">
+        <v>42033</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="58">
+        <v>1256.0999999999999</v>
+      </c>
+      <c r="L15" s="63"/>
+      <c r="M15" s="82">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
+        <v>42034</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="L16" s="63"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="24">
+        <v>42037</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="53"/>
+      <c r="L17" s="63"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="24">
+        <v>42038</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="53"/>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="24">
+        <v>42039</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="53"/>
+      <c r="L19" s="63"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="24">
+        <v>42040</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="53"/>
+      <c r="L20" s="63"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="24">
+        <v>42041</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="58">
+        <v>1235</v>
+      </c>
+      <c r="L21" s="63"/>
+      <c r="M21" s="82">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="24">
+        <v>42044</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="53"/>
+      <c r="L22" s="63"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="24">
+        <v>42045</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="58">
+        <v>1232.5999999999999</v>
+      </c>
+      <c r="J23" s="88"/>
+      <c r="L23" s="63"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="24">
+        <v>42046</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="58">
+        <v>1220</v>
+      </c>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="24">
+        <v>42047</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="53"/>
+      <c r="L25" s="63"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="24">
+        <v>42048</v>
+      </c>
+      <c r="D26" s="60"/>
+      <c r="E26" s="53"/>
+      <c r="L26" s="63"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="24">
+        <v>42051</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="53"/>
+      <c r="L27" s="63"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="24">
+        <v>42052</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="58">
+        <v>1209</v>
+      </c>
+      <c r="L28" s="63"/>
+      <c r="M28" s="82">
+        <v>16.425000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="24">
+        <v>42053</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="58">
+        <v>1200.5999999999999</v>
+      </c>
+      <c r="L29" s="63"/>
+      <c r="M29" s="82">
+        <v>16.309999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="24">
+        <v>42054</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="53"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="24">
+        <v>42055</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="53"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="24">
+        <v>42058</v>
+      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="53"/>
+      <c r="L32" s="63"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="24">
+        <v>42059</v>
+      </c>
+      <c r="D33" s="60"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="58">
+        <v>1197.7</v>
+      </c>
+      <c r="L33" s="63"/>
+      <c r="M33" s="82">
+        <v>16.245000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="24">
+        <v>42060</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="53"/>
+      <c r="L34" s="63"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="24">
+        <v>42061</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="53"/>
+      <c r="L35" s="63"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="24">
+        <v>42062</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="53"/>
+      <c r="L36" s="63"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="24">
+        <v>42065</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="53"/>
+      <c r="L37" s="63"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="24">
+        <v>42066</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="53"/>
+      <c r="L38" s="63"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="24">
+        <v>42067</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="53"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="82">
+        <v>16.184999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="24">
+        <v>42068</v>
+      </c>
+      <c r="D40" s="60"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="58">
+        <v>1196.8</v>
+      </c>
+      <c r="L40" s="63"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="24">
+        <v>42069</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="58">
+        <v>1165</v>
+      </c>
+      <c r="L41" s="63"/>
+      <c r="M41" s="82">
+        <v>15.835000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="24">
+        <v>42072</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="53"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="82">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="24">
+        <v>42073</v>
+      </c>
+      <c r="D43" s="60"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="58">
+        <v>1160.8</v>
+      </c>
+      <c r="L43" s="63"/>
+      <c r="M43" s="82">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="24">
+        <v>42074</v>
+      </c>
+      <c r="D44" s="60"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="58">
+        <v>1151.3</v>
+      </c>
+      <c r="L44" s="80">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="24">
+        <v>42075</v>
+      </c>
+      <c r="D45" s="60"/>
+      <c r="E45" s="53"/>
+      <c r="L45" s="63"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="24">
+        <v>42076</v>
+      </c>
+      <c r="D46" s="60"/>
+      <c r="E46" s="53"/>
+      <c r="L46" s="63"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="24">
+        <v>42079</v>
+      </c>
+      <c r="D47" s="60"/>
+      <c r="E47" s="53"/>
+      <c r="L47" s="63"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="24">
+        <v>42080</v>
+      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="74">
+        <v>1148.9000000000001</v>
+      </c>
+      <c r="L48" s="63"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>42081</v>
+      </c>
+      <c r="D49" s="60"/>
+      <c r="E49" s="53"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="83"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>42082</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="53"/>
+      <c r="L50" s="63"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>42083</v>
+      </c>
+      <c r="C51" s="58">
+        <v>1185.3</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="53"/>
+      <c r="J51" s="87">
+        <v>16.91</v>
+      </c>
+      <c r="L51" s="63"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>42086</v>
+      </c>
+      <c r="C52" s="58">
+        <v>1188.4000000000001</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="53"/>
+      <c r="J52" s="87">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="L52" s="63"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C53" s="58">
+        <v>1192.0999999999999</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="E53" s="53"/>
+      <c r="J53" s="87">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="L53" s="63"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>42088</v>
+      </c>
+      <c r="C54" s="58">
+        <v>1198</v>
+      </c>
+      <c r="D54" s="60"/>
+      <c r="E54" s="53"/>
+      <c r="J54" s="87">
+        <v>17.024999999999999</v>
+      </c>
+      <c r="L54" s="63"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>42089</v>
+      </c>
+      <c r="C55" s="58">
+        <v>1205.8</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="53"/>
+      <c r="J55" s="89">
+        <v>17.164999999999999</v>
+      </c>
+      <c r="L55" s="63"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>42090</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="53"/>
+      <c r="L56" s="63"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>42093</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="53"/>
+      <c r="L57" s="63"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>42094</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="53"/>
+      <c r="L58" s="63"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>42095</v>
+      </c>
+      <c r="C59" s="58">
+        <v>1208.7</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="53"/>
+      <c r="L59" s="63"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>42096</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="E60" s="53"/>
+      <c r="L60" s="63"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>42097</v>
+      </c>
+      <c r="D61" s="60"/>
+      <c r="E61" s="53"/>
+      <c r="L61" s="63"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>42100</v>
+      </c>
+      <c r="C62" s="75">
+        <v>1219.0999999999999</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="53"/>
+      <c r="L62" s="63"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>42101</v>
+      </c>
+      <c r="D63" s="60"/>
+      <c r="E63" s="53"/>
+      <c r="L63" s="63"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>42102</v>
+      </c>
+      <c r="D64" s="60"/>
+      <c r="E64" s="53"/>
+      <c r="L64" s="63"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>42103</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="53"/>
+      <c r="L65" s="63"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>42104</v>
+      </c>
+      <c r="D66" s="60"/>
+      <c r="E66" s="53"/>
+      <c r="L66" s="63"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>42107</v>
+      </c>
+      <c r="D67" s="60"/>
+      <c r="E67" s="53"/>
+      <c r="L67" s="63"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>42108</v>
+      </c>
+      <c r="D68" s="60"/>
+      <c r="E68" s="53"/>
+      <c r="L68" s="63"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>42109</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="53"/>
+      <c r="L69" s="63"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>42110</v>
+      </c>
+      <c r="D70" s="60"/>
+      <c r="E70" s="53"/>
+      <c r="L70" s="63"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>42111</v>
+      </c>
+      <c r="D71" s="60"/>
+      <c r="E71" s="53"/>
+      <c r="L71" s="63"/>
+    </row>
+    <row r="72" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>42114</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="86"/>
+      <c r="L72" s="63"/>
+      <c r="N72" s="82">
+        <v>15.935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>42115</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
+      <c r="L73" s="63"/>
+    </row>
+    <row r="74" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>42116</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="86"/>
+      <c r="L74" s="63"/>
+      <c r="N74" s="82">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>42117</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
+      <c r="L75" s="63"/>
+    </row>
+    <row r="76" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>42118</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="3">
+        <v>1175.5999999999999</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="86"/>
+      <c r="L76" s="63"/>
+      <c r="N76" s="82">
+        <v>15.685</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>42121</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
+      <c r="L77" s="63"/>
+    </row>
+    <row r="78" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>42122</v>
+      </c>
+      <c r="B78" s="17">
+        <v>1214.5</v>
+      </c>
+      <c r="C78" s="73"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="86">
+        <v>16.645</v>
+      </c>
+      <c r="J78" s="86"/>
+      <c r="L78" s="63"/>
+    </row>
+    <row r="79" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>42123</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="86">
+        <v>16.72</v>
+      </c>
+      <c r="J79" s="86"/>
+      <c r="L79" s="63"/>
+    </row>
+    <row r="80" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="86"/>
+      <c r="J80" s="86"/>
+      <c r="L80" s="63"/>
+    </row>
+    <row r="81" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="3">
+        <v>1175.2</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="86"/>
+      <c r="L81" s="63"/>
+    </row>
+    <row r="82" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>42128</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="86"/>
+      <c r="L82" s="63"/>
+    </row>
+    <row r="83" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>42129</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="86"/>
+      <c r="L83" s="63"/>
+    </row>
+    <row r="84" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>42130</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="86"/>
+      <c r="L84" s="63"/>
+    </row>
+    <row r="85" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>42131</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="86"/>
+      <c r="L85" s="63"/>
+    </row>
+    <row r="86" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>42132</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="86"/>
+      <c r="J86" s="86"/>
+      <c r="L86" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:N1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/future.xlsx
+++ b/future.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="农产品" sheetId="1" r:id="rId1"/>
@@ -88,8 +88,8 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="181" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -188,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF66CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,18 +462,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,13 +546,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -567,23 +576,29 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,12 +609,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FF008000"/>
       <color rgb="FFFF3399"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FFFF33CC"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF6699"/>
-      <color rgb="FF008000"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFFF5050"/>
@@ -901,10 +916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -916,34 +932,36 @@
     <col min="6" max="8" width="9" style="3"/>
     <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="9" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="90"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -984,8 +1002,12 @@
       <c r="N2" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2">
+        <f>4526*0.97</f>
+        <v>4390.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
       <c r="D3" s="29">
@@ -995,8 +1017,11 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K3" s="29">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42081</v>
       </c>
@@ -1009,7 +1034,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42082</v>
       </c>
@@ -1018,7 +1043,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42083</v>
       </c>
@@ -1026,7 +1051,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42086</v>
       </c>
@@ -1034,7 +1059,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42087</v>
       </c>
@@ -1042,7 +1067,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42088</v>
       </c>
@@ -1050,7 +1075,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42089</v>
       </c>
@@ -1058,7 +1083,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42090</v>
       </c>
@@ -1066,7 +1091,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42093</v>
       </c>
@@ -1074,7 +1099,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42094</v>
       </c>
@@ -1085,7 +1110,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42095</v>
       </c>
@@ -1093,7 +1118,7 @@
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42096</v>
       </c>
@@ -1101,7 +1126,7 @@
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42097</v>
       </c>
@@ -1109,7 +1134,7 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42100</v>
       </c>
@@ -1117,15 +1142,18 @@
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42101</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="L18" s="87">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42102</v>
       </c>
@@ -1133,7 +1161,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42103</v>
       </c>
@@ -1141,7 +1169,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42104</v>
       </c>
@@ -1149,23 +1177,29 @@
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42107</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="J22" s="3">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42108</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="J23" s="3">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42109</v>
       </c>
@@ -1175,7 +1209,7 @@
       </c>
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42110</v>
       </c>
@@ -1184,15 +1218,18 @@
         <v>5584</v>
       </c>
       <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="J25" s="3">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42111</v>
       </c>
       <c r="B26" s="17"/>
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42114</v>
       </c>
@@ -1201,8 +1238,11 @@
         <v>5638</v>
       </c>
       <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="J27" s="3">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42115</v>
       </c>
@@ -1211,8 +1251,11 @@
         <v>5686</v>
       </c>
       <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="J28" s="3">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42116</v>
       </c>
@@ -1220,7 +1263,7 @@
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42117</v>
       </c>
@@ -1228,7 +1271,7 @@
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42118</v>
       </c>
@@ -1236,7 +1279,7 @@
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42121</v>
       </c>
@@ -1246,15 +1289,18 @@
       </c>
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42122</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="J33" s="88">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>42123</v>
       </c>
@@ -1262,7 +1308,7 @@
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>42124</v>
       </c>
@@ -1270,7 +1316,7 @@
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>42125</v>
       </c>
@@ -1278,7 +1324,7 @@
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>42128</v>
       </c>
@@ -1288,7 +1334,7 @@
         <v>5806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>42129</v>
       </c>
@@ -1298,7 +1344,7 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>42130</v>
       </c>
@@ -1308,7 +1354,7 @@
         <v>5946</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>42131</v>
       </c>
@@ -1316,7 +1362,7 @@
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>42132</v>
       </c>
@@ -1324,37 +1370,43 @@
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>42135</v>
+      </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="M42">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
@@ -1563,8 +1615,8 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="A1:XFD81"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1576,34 +1628,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
       <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2655,7 @@
   <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2615,29 +2667,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3667,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
@@ -3675,58 +3727,58 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="9" style="58"/>
-    <col min="4" max="4" width="9.625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="58"/>
-    <col min="9" max="10" width="9" style="87"/>
-    <col min="11" max="11" width="9.625" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="82"/>
+    <col min="3" max="3" width="9" style="54"/>
+    <col min="4" max="4" width="9.625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="54"/>
+    <col min="9" max="10" width="9" style="83"/>
+    <col min="11" max="11" width="9.625" style="74" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
       <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="63" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -3736,22 +3788,22 @@
         <f>1175.2*1.03</f>
         <v>1210.4560000000001</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="80" t="s">
         <v>6</v>
       </c>
       <c r="O2">
@@ -3762,16 +3814,16 @@
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
-      <c r="E3" s="65">
+      <c r="E3" s="61">
         <v>1142.9000000000001</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="12"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="80">
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="76">
         <v>15.43</v>
       </c>
     </row>
@@ -3780,118 +3832,118 @@
         <v>42018</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="68"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="12"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="L4" s="64"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42019</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="68"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="12"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="L5" s="63"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42020</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="53"/>
-      <c r="L6" s="63"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="49"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42023</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="53"/>
-      <c r="L7" s="63"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="49"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42024</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="53"/>
-      <c r="L8" s="63"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="49"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42025</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="53"/>
-      <c r="L9" s="63"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="49"/>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42026</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="62">
         <v>1301.5</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="K10" s="79">
+      <c r="E10" s="49"/>
+      <c r="K10" s="75">
         <v>18.385000000000002</v>
       </c>
-      <c r="L10" s="63"/>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42027</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="53"/>
-      <c r="L11" s="63"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="49"/>
+      <c r="L11" s="59"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42030</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42031</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="53"/>
-      <c r="L13" s="63"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="49"/>
+      <c r="L13" s="59"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42032</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="52"/>
-      <c r="L14" s="63"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="48"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>42033</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="58">
+      <c r="D15" s="56"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="54">
         <v>1256.0999999999999</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="82">
+      <c r="L15" s="59"/>
+      <c r="M15" s="78">
         <v>16.8</v>
       </c>
     </row>
@@ -3899,52 +3951,52 @@
       <c r="A16" s="24">
         <v>42034</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="L16" s="63"/>
+      <c r="D16" s="56"/>
+      <c r="L16" s="59"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>42037</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="53"/>
-      <c r="L17" s="63"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="49"/>
+      <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42038</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="53"/>
-      <c r="L18" s="63"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="49"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42039</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="53"/>
-      <c r="L19" s="63"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="49"/>
+      <c r="L19" s="59"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42040</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="53"/>
-      <c r="L20" s="63"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="49"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42041</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="58">
+      <c r="D21" s="56"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="54">
         <v>1235</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="82">
+      <c r="L21" s="59"/>
+      <c r="M21" s="78">
         <v>16.73</v>
       </c>
     </row>
@@ -3952,68 +4004,68 @@
       <c r="A22" s="24">
         <v>42044</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="53"/>
-      <c r="L22" s="63"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="49"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>42045</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="58">
+      <c r="D23" s="56"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="54">
         <v>1232.5999999999999</v>
       </c>
-      <c r="J23" s="88"/>
-      <c r="L23" s="63"/>
+      <c r="J23" s="84"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>42046</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="58">
+      <c r="D24" s="56"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="54">
         <v>1220</v>
       </c>
-      <c r="L24" s="63"/>
+      <c r="L24" s="59"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42047</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="53"/>
-      <c r="L25" s="63"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="49"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42048</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="53"/>
-      <c r="L26" s="63"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="49"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42051</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="53"/>
-      <c r="L27" s="63"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="49"/>
+      <c r="L27" s="59"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42052</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="58">
+      <c r="D28" s="56"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="54">
         <v>1209</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="82">
+      <c r="L28" s="59"/>
+      <c r="M28" s="78">
         <v>16.425000000000001</v>
       </c>
     </row>
@@ -4021,13 +4073,13 @@
       <c r="A29" s="24">
         <v>42053</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="58">
+      <c r="D29" s="56"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="54">
         <v>1200.5999999999999</v>
       </c>
-      <c r="L29" s="63"/>
-      <c r="M29" s="82">
+      <c r="L29" s="59"/>
+      <c r="M29" s="78">
         <v>16.309999999999999</v>
       </c>
     </row>
@@ -4035,37 +4087,37 @@
       <c r="A30" s="24">
         <v>42054</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="53"/>
-      <c r="L30" s="63"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="49"/>
+      <c r="L30" s="59"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>42055</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="53"/>
-      <c r="L31" s="63"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="49"/>
+      <c r="L31" s="59"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>42058</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="53"/>
-      <c r="L32" s="63"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="49"/>
+      <c r="L32" s="59"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>42059</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58">
+      <c r="D33" s="56"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="54">
         <v>1197.7</v>
       </c>
-      <c r="L33" s="63"/>
-      <c r="M33" s="82">
+      <c r="L33" s="59"/>
+      <c r="M33" s="78">
         <v>16.245000000000001</v>
       </c>
     </row>
@@ -4073,51 +4125,51 @@
       <c r="A34" s="24">
         <v>42060</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="53"/>
-      <c r="L34" s="63"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="49"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>42061</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="53"/>
-      <c r="L35" s="63"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="49"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>42062</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="53"/>
-      <c r="L36" s="63"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="49"/>
+      <c r="L36" s="59"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>42065</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="53"/>
-      <c r="L37" s="63"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="49"/>
+      <c r="L37" s="59"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>42066</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="53"/>
-      <c r="L38" s="63"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="49"/>
+      <c r="L38" s="59"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>42067</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="53"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="82">
+      <c r="D39" s="56"/>
+      <c r="E39" s="49"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="78">
         <v>16.184999999999999</v>
       </c>
     </row>
@@ -4125,24 +4177,24 @@
       <c r="A40" s="24">
         <v>42068</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="58">
+      <c r="D40" s="56"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="54">
         <v>1196.8</v>
       </c>
-      <c r="L40" s="63"/>
+      <c r="L40" s="59"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>42069</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="58">
+      <c r="D41" s="56"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="54">
         <v>1165</v>
       </c>
-      <c r="L41" s="63"/>
-      <c r="M41" s="82">
+      <c r="L41" s="59"/>
+      <c r="M41" s="78">
         <v>15.835000000000001</v>
       </c>
     </row>
@@ -4150,10 +4202,10 @@
       <c r="A42" s="24">
         <v>42072</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="53"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="82">
+      <c r="D42" s="56"/>
+      <c r="E42" s="49"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="78">
         <v>15.8</v>
       </c>
     </row>
@@ -4161,13 +4213,13 @@
       <c r="A43" s="24">
         <v>42073</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="58">
+      <c r="D43" s="56"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="54">
         <v>1160.8</v>
       </c>
-      <c r="L43" s="63"/>
-      <c r="M43" s="82">
+      <c r="L43" s="59"/>
+      <c r="M43" s="78">
         <v>15.66</v>
       </c>
     </row>
@@ -4175,12 +4227,12 @@
       <c r="A44" s="24">
         <v>42074</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="58">
+      <c r="D44" s="56"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="54">
         <v>1151.3</v>
       </c>
-      <c r="L44" s="80">
+      <c r="L44" s="76">
         <v>15.39</v>
       </c>
     </row>
@@ -4188,273 +4240,273 @@
       <c r="A45" s="24">
         <v>42075</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="53"/>
-      <c r="L45" s="63"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="49"/>
+      <c r="L45" s="59"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>42076</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="53"/>
-      <c r="L46" s="63"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="49"/>
+      <c r="L46" s="59"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>42079</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="53"/>
-      <c r="L47" s="63"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="49"/>
+      <c r="L47" s="59"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>42080</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="74">
+      <c r="D48" s="56"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="70">
         <v>1148.9000000000001</v>
       </c>
-      <c r="L48" s="63"/>
+      <c r="L48" s="59"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>42081</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="53"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="83"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="49"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="79"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>42082</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="53"/>
-      <c r="L50" s="63"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="49"/>
+      <c r="L50" s="59"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>42083</v>
       </c>
-      <c r="C51" s="58">
+      <c r="C51" s="54">
         <v>1185.3</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="53"/>
-      <c r="J51" s="87">
+      <c r="D51" s="56"/>
+      <c r="E51" s="49"/>
+      <c r="J51" s="83">
         <v>16.91</v>
       </c>
-      <c r="L51" s="63"/>
+      <c r="L51" s="59"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>42086</v>
       </c>
-      <c r="C52" s="58">
+      <c r="C52" s="54">
         <v>1188.4000000000001</v>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="53"/>
-      <c r="J52" s="87">
+      <c r="D52" s="56"/>
+      <c r="E52" s="49"/>
+      <c r="J52" s="83">
         <v>16.914999999999999</v>
       </c>
-      <c r="L52" s="63"/>
+      <c r="L52" s="59"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>42087</v>
       </c>
-      <c r="C53" s="58">
+      <c r="C53" s="54">
         <v>1192.0999999999999</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="53"/>
-      <c r="J53" s="87">
+      <c r="D53" s="56"/>
+      <c r="E53" s="49"/>
+      <c r="J53" s="83">
         <v>17.010000000000002</v>
       </c>
-      <c r="L53" s="63"/>
+      <c r="L53" s="59"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>42088</v>
       </c>
-      <c r="C54" s="58">
+      <c r="C54" s="54">
         <v>1198</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="53"/>
-      <c r="J54" s="87">
+      <c r="D54" s="56"/>
+      <c r="E54" s="49"/>
+      <c r="J54" s="83">
         <v>17.024999999999999</v>
       </c>
-      <c r="L54" s="63"/>
+      <c r="L54" s="59"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>42089</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="54">
         <v>1205.8</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="53"/>
-      <c r="J55" s="89">
+      <c r="D55" s="56"/>
+      <c r="E55" s="49"/>
+      <c r="J55" s="85">
         <v>17.164999999999999</v>
       </c>
-      <c r="L55" s="63"/>
+      <c r="L55" s="59"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>42090</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="53"/>
-      <c r="L56" s="63"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="49"/>
+      <c r="L56" s="59"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>42093</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="53"/>
-      <c r="L57" s="63"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="49"/>
+      <c r="L57" s="59"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>42094</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="53"/>
-      <c r="L58" s="63"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="49"/>
+      <c r="L58" s="59"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>42095</v>
       </c>
-      <c r="C59" s="58">
+      <c r="C59" s="54">
         <v>1208.7</v>
       </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="53"/>
-      <c r="L59" s="63"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="49"/>
+      <c r="L59" s="59"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>42096</v>
       </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="53"/>
-      <c r="L60" s="63"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="49"/>
+      <c r="L60" s="59"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>42097</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="53"/>
-      <c r="L61" s="63"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="49"/>
+      <c r="L61" s="59"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>42100</v>
       </c>
-      <c r="C62" s="75">
+      <c r="C62" s="71">
         <v>1219.0999999999999</v>
       </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="53"/>
-      <c r="L62" s="63"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="49"/>
+      <c r="L62" s="59"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>42101</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="53"/>
-      <c r="L63" s="63"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="49"/>
+      <c r="L63" s="59"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>42102</v>
       </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="53"/>
-      <c r="L64" s="63"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="49"/>
+      <c r="L64" s="59"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>42103</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="53"/>
-      <c r="L65" s="63"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="49"/>
+      <c r="L65" s="59"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>42104</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="53"/>
-      <c r="L66" s="63"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="49"/>
+      <c r="L66" s="59"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>42107</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="53"/>
-      <c r="L67" s="63"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="49"/>
+      <c r="L67" s="59"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>42108</v>
       </c>
-      <c r="D68" s="60"/>
-      <c r="E68" s="53"/>
-      <c r="L68" s="63"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="49"/>
+      <c r="L68" s="59"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>42109</v>
       </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="53"/>
-      <c r="L69" s="63"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="49"/>
+      <c r="L69" s="59"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>42110</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="53"/>
-      <c r="L70" s="63"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="49"/>
+      <c r="L70" s="59"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>42111</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="53"/>
-      <c r="L71" s="63"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="49"/>
+      <c r="L71" s="59"/>
     </row>
     <row r="72" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>42114</v>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="68"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="64"/>
       <c r="G72" s="12"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="86"/>
-      <c r="J72" s="86"/>
-      <c r="L72" s="63"/>
-      <c r="N72" s="82">
+      <c r="I72" s="82"/>
+      <c r="J72" s="82"/>
+      <c r="L72" s="59"/>
+      <c r="N72" s="78">
         <v>15.935</v>
       </c>
     </row>
@@ -4463,31 +4515,31 @@
         <v>42115</v>
       </c>
       <c r="B73" s="17"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="65"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="86"/>
-      <c r="L73" s="63"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
+      <c r="L73" s="59"/>
     </row>
     <row r="74" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>42116</v>
       </c>
       <c r="B74" s="17"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="65"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="86"/>
-      <c r="L74" s="63"/>
-      <c r="N74" s="82">
+      <c r="I74" s="82"/>
+      <c r="J74" s="82"/>
+      <c r="L74" s="59"/>
+      <c r="N74" s="78">
         <v>15.84</v>
       </c>
     </row>
@@ -4496,33 +4548,33 @@
         <v>42117</v>
       </c>
       <c r="B75" s="17"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="65"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="86"/>
-      <c r="J75" s="86"/>
-      <c r="L75" s="63"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
+      <c r="L75" s="59"/>
     </row>
     <row r="76" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>42118</v>
       </c>
       <c r="B76" s="17"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="65"/>
       <c r="G76" s="3">
         <v>1175.5999999999999</v>
       </c>
       <c r="H76" s="3"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="86"/>
-      <c r="L76" s="63"/>
-      <c r="N76" s="82">
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="L76" s="59"/>
+      <c r="N76" s="78">
         <v>15.685</v>
       </c>
     </row>
@@ -4531,15 +4583,15 @@
         <v>42121</v>
       </c>
       <c r="B77" s="17"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="65"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="86"/>
-      <c r="J77" s="86"/>
-      <c r="L77" s="63"/>
+      <c r="I77" s="82"/>
+      <c r="J77" s="82"/>
+      <c r="L77" s="59"/>
     </row>
     <row r="78" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
@@ -4548,141 +4600,141 @@
       <c r="B78" s="17">
         <v>1214.5</v>
       </c>
-      <c r="C78" s="73"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="65"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="86">
+      <c r="I78" s="82">
         <v>16.645</v>
       </c>
-      <c r="J78" s="86"/>
-      <c r="L78" s="63"/>
+      <c r="J78" s="82"/>
+      <c r="L78" s="59"/>
     </row>
     <row r="79" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>42123</v>
       </c>
       <c r="B79" s="17"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="65"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="86">
+      <c r="I79" s="82">
         <v>16.72</v>
       </c>
-      <c r="J79" s="86"/>
-      <c r="L79" s="63"/>
+      <c r="J79" s="82"/>
+      <c r="L79" s="59"/>
     </row>
     <row r="80" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>42124</v>
       </c>
       <c r="B80" s="17"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="65"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="86"/>
-      <c r="J80" s="86"/>
-      <c r="L80" s="63"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82"/>
+      <c r="L80" s="59"/>
     </row>
     <row r="81" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>42125</v>
       </c>
       <c r="B81" s="17"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="65"/>
       <c r="G81" s="3">
         <v>1175.2</v>
       </c>
       <c r="H81" s="3"/>
-      <c r="I81" s="86"/>
-      <c r="J81" s="86"/>
-      <c r="L81" s="63"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="L81" s="59"/>
     </row>
     <row r="82" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>42128</v>
       </c>
       <c r="B82" s="17"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="65"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="86"/>
-      <c r="J82" s="86"/>
-      <c r="L82" s="63"/>
+      <c r="I82" s="82"/>
+      <c r="J82" s="82"/>
+      <c r="L82" s="59"/>
     </row>
     <row r="83" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>42129</v>
       </c>
       <c r="B83" s="17"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="69"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="65"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="86"/>
-      <c r="J83" s="86"/>
-      <c r="L83" s="63"/>
+      <c r="I83" s="82"/>
+      <c r="J83" s="82"/>
+      <c r="L83" s="59"/>
     </row>
     <row r="84" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>42130</v>
       </c>
       <c r="B84" s="17"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="65"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="86"/>
-      <c r="J84" s="86"/>
-      <c r="L84" s="63"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="L84" s="59"/>
     </row>
     <row r="85" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>42131</v>
       </c>
       <c r="B85" s="17"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="65"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="86"/>
-      <c r="L85" s="63"/>
+      <c r="I85" s="82"/>
+      <c r="J85" s="82"/>
+      <c r="L85" s="59"/>
     </row>
     <row r="86" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>42132</v>
       </c>
       <c r="B86" s="17"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="65"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="86"/>
-      <c r="J86" s="86"/>
-      <c r="L86" s="63"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
+      <c r="L86" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/future.xlsx
+++ b/future.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="农产品" sheetId="1" r:id="rId1"/>
@@ -459,9 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,9 +918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -933,35 +933,35 @@
     <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="9" style="86"/>
+    <col min="12" max="12" width="9" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1003,8 +1003,8 @@
         <v>6</v>
       </c>
       <c r="O2">
-        <f>4526*0.97</f>
-        <v>4390.22</v>
+        <f>4469*0.97</f>
+        <v>4334.93</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1149,7 +1149,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
-      <c r="L18" s="87">
+      <c r="L18" s="86">
         <v>4242</v>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
-      <c r="J33" s="88">
+      <c r="J33" s="87">
         <v>4526</v>
       </c>
     </row>
@@ -1377,29 +1377,50 @@
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
-      <c r="M42">
+      <c r="M42" s="1">
         <v>4370</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42136</v>
+      </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>42137</v>
+      </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
+      <c r="M44" s="32">
+        <v>4368</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>42138</v>
+      </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
+      <c r="I45" s="3">
+        <v>4439</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>42139</v>
+      </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
+      <c r="I46" s="3">
+        <v>4469</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B47" s="17"/>
@@ -1616,7 +1637,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1628,34 +1649,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
       <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2375,6 +2396,9 @@
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>42135</v>
+      </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
@@ -2386,6 +2410,9 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>42136</v>
+      </c>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
@@ -2397,6 +2424,9 @@
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>42137</v>
+      </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
@@ -2408,6 +2438,9 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>42138</v>
+      </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
@@ -2419,6 +2452,9 @@
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>42139</v>
+      </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
@@ -2430,6 +2466,9 @@
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>42142</v>
+      </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
@@ -2441,6 +2480,9 @@
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>42143</v>
+      </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
@@ -2452,6 +2494,9 @@
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>42144</v>
+      </c>
       <c r="B89" s="17"/>
       <c r="C89" s="3"/>
       <c r="D89" s="18"/>
@@ -2463,6 +2508,9 @@
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>42145</v>
+      </c>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18"/>
@@ -2474,6 +2522,9 @@
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>42146</v>
+      </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18"/>
@@ -2652,11 +2703,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2667,29 +2718,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2709,8 +2760,8 @@
         <v>6</v>
       </c>
       <c r="H2" s="3">
-        <f>15005*0.97</f>
-        <v>14554.85</v>
+        <f>14240*1.03</f>
+        <v>14667.2</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>1</v>
@@ -3638,7 +3689,7 @@
         <v>14195</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>42122</v>
       </c>
@@ -3646,12 +3697,12 @@
         <v>14280</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>42123</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>42124</v>
       </c>
@@ -3659,37 +3710,65 @@
         <v>14470</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>42125</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>42128</v>
       </c>
-      <c r="D101" s="46">
+      <c r="D101" s="92">
         <v>15005</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>42129</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>42130</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>42131</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>42132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>42135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>42136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>42137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>42138</v>
+      </c>
+      <c r="G109">
+        <v>14240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>42139</v>
       </c>
     </row>
   </sheetData>
@@ -3717,113 +3796,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="9" style="54"/>
-    <col min="4" max="4" width="9.625" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="54"/>
-    <col min="9" max="10" width="9" style="83"/>
-    <col min="11" max="11" width="9.625" style="74" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="78"/>
+    <col min="3" max="3" width="9" style="53"/>
+    <col min="4" max="4" width="9.625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="53"/>
+    <col min="9" max="10" width="9" style="82"/>
+    <col min="11" max="11" width="9.625" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
       <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="62" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="3">
-        <f>1175.2*1.03</f>
-        <v>1210.4560000000001</v>
-      </c>
-      <c r="I2" s="81" t="s">
+        <f>1226.3*0.97</f>
+        <v>1189.511</v>
+      </c>
+      <c r="I2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="O2">
-        <f>16.72*0.94</f>
-        <v>15.716799999999997</v>
+        <f>17.595*0.94</f>
+        <v>16.539299999999997</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
-      <c r="E3" s="61">
+      <c r="E3" s="60">
         <v>1142.9000000000001</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="12"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="76">
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="75">
         <v>15.43</v>
       </c>
     </row>
@@ -3832,118 +3911,118 @@
         <v>42018</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="64"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="12"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="L4" s="60"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42019</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="12"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="L5" s="59"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42020</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="49"/>
-      <c r="L6" s="59"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="48"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42023</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="49"/>
-      <c r="L7" s="59"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="48"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42024</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="49"/>
-      <c r="L8" s="59"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="48"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42025</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="49"/>
-      <c r="L9" s="59"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="48"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42026</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="61">
         <v>1301.5</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="K10" s="75">
+      <c r="E10" s="48"/>
+      <c r="K10" s="74">
         <v>18.385000000000002</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42027</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="49"/>
-      <c r="L11" s="59"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="48"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42030</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42031</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="49"/>
-      <c r="L13" s="59"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="48"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42032</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="48"/>
-      <c r="L14" s="59"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="47"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>42033</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="54">
+      <c r="D15" s="55"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="53">
         <v>1256.0999999999999</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="78">
+      <c r="L15" s="58"/>
+      <c r="M15" s="77">
         <v>16.8</v>
       </c>
     </row>
@@ -3951,52 +4030,52 @@
       <c r="A16" s="24">
         <v>42034</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="L16" s="59"/>
+      <c r="D16" s="55"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>42037</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="49"/>
-      <c r="L17" s="59"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="48"/>
+      <c r="L17" s="58"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42038</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="49"/>
-      <c r="L18" s="59"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="48"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42039</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="49"/>
-      <c r="L19" s="59"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="48"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42040</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="49"/>
-      <c r="L20" s="59"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="48"/>
+      <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42041</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="54">
+      <c r="D21" s="55"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="53">
         <v>1235</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="78">
+      <c r="L21" s="58"/>
+      <c r="M21" s="77">
         <v>16.73</v>
       </c>
     </row>
@@ -4004,68 +4083,68 @@
       <c r="A22" s="24">
         <v>42044</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="49"/>
-      <c r="L22" s="59"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="48"/>
+      <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>42045</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="54">
+      <c r="D23" s="55"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="53">
         <v>1232.5999999999999</v>
       </c>
-      <c r="J23" s="84"/>
-      <c r="L23" s="59"/>
+      <c r="J23" s="83"/>
+      <c r="L23" s="58"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>42046</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="54">
+      <c r="D24" s="55"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="53">
         <v>1220</v>
       </c>
-      <c r="L24" s="59"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42047</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="49"/>
-      <c r="L25" s="59"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="48"/>
+      <c r="L25" s="58"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42048</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="49"/>
-      <c r="L26" s="59"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="48"/>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42051</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="49"/>
-      <c r="L27" s="59"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="48"/>
+      <c r="L27" s="58"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42052</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="54">
+      <c r="D28" s="55"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="53">
         <v>1209</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="78">
+      <c r="L28" s="58"/>
+      <c r="M28" s="77">
         <v>16.425000000000001</v>
       </c>
     </row>
@@ -4073,13 +4152,13 @@
       <c r="A29" s="24">
         <v>42053</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="54">
+      <c r="D29" s="55"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="53">
         <v>1200.5999999999999</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="78">
+      <c r="L29" s="58"/>
+      <c r="M29" s="77">
         <v>16.309999999999999</v>
       </c>
     </row>
@@ -4087,37 +4166,37 @@
       <c r="A30" s="24">
         <v>42054</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="49"/>
-      <c r="L30" s="59"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="48"/>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>42055</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="49"/>
-      <c r="L31" s="59"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="48"/>
+      <c r="L31" s="58"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>42058</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="49"/>
-      <c r="L32" s="59"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="48"/>
+      <c r="L32" s="58"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>42059</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="54">
+      <c r="D33" s="55"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="53">
         <v>1197.7</v>
       </c>
-      <c r="L33" s="59"/>
-      <c r="M33" s="78">
+      <c r="L33" s="58"/>
+      <c r="M33" s="77">
         <v>16.245000000000001</v>
       </c>
     </row>
@@ -4125,51 +4204,51 @@
       <c r="A34" s="24">
         <v>42060</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="49"/>
-      <c r="L34" s="59"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="48"/>
+      <c r="L34" s="58"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>42061</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="49"/>
-      <c r="L35" s="59"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="48"/>
+      <c r="L35" s="58"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>42062</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="49"/>
-      <c r="L36" s="59"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="48"/>
+      <c r="L36" s="58"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>42065</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="49"/>
-      <c r="L37" s="59"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="48"/>
+      <c r="L37" s="58"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>42066</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="49"/>
-      <c r="L38" s="59"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="48"/>
+      <c r="L38" s="58"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>42067</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="49"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="78">
+      <c r="D39" s="55"/>
+      <c r="E39" s="48"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="77">
         <v>16.184999999999999</v>
       </c>
     </row>
@@ -4177,24 +4256,24 @@
       <c r="A40" s="24">
         <v>42068</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="54">
+      <c r="D40" s="55"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="53">
         <v>1196.8</v>
       </c>
-      <c r="L40" s="59"/>
+      <c r="L40" s="58"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>42069</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="54">
+      <c r="D41" s="55"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="53">
         <v>1165</v>
       </c>
-      <c r="L41" s="59"/>
-      <c r="M41" s="78">
+      <c r="L41" s="58"/>
+      <c r="M41" s="77">
         <v>15.835000000000001</v>
       </c>
     </row>
@@ -4202,10 +4281,10 @@
       <c r="A42" s="24">
         <v>42072</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="49"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="78">
+      <c r="D42" s="55"/>
+      <c r="E42" s="48"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="77">
         <v>15.8</v>
       </c>
     </row>
@@ -4213,13 +4292,13 @@
       <c r="A43" s="24">
         <v>42073</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="54">
+      <c r="D43" s="55"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="53">
         <v>1160.8</v>
       </c>
-      <c r="L43" s="59"/>
-      <c r="M43" s="78">
+      <c r="L43" s="58"/>
+      <c r="M43" s="77">
         <v>15.66</v>
       </c>
     </row>
@@ -4227,12 +4306,12 @@
       <c r="A44" s="24">
         <v>42074</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="54">
+      <c r="D44" s="55"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="53">
         <v>1151.3</v>
       </c>
-      <c r="L44" s="76">
+      <c r="L44" s="75">
         <v>15.39</v>
       </c>
     </row>
@@ -4240,273 +4319,273 @@
       <c r="A45" s="24">
         <v>42075</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="49"/>
-      <c r="L45" s="59"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="48"/>
+      <c r="L45" s="58"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>42076</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="49"/>
-      <c r="L46" s="59"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="48"/>
+      <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>42079</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="49"/>
-      <c r="L47" s="59"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="48"/>
+      <c r="L47" s="58"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>42080</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="70">
+      <c r="D48" s="55"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="69">
         <v>1148.9000000000001</v>
       </c>
-      <c r="L48" s="59"/>
+      <c r="L48" s="58"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>42081</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="49"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="79"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="48"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="78"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>42082</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="49"/>
-      <c r="L50" s="59"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="48"/>
+      <c r="L50" s="58"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>42083</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="53">
         <v>1185.3</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="49"/>
-      <c r="J51" s="83">
+      <c r="D51" s="55"/>
+      <c r="E51" s="48"/>
+      <c r="J51" s="82">
         <v>16.91</v>
       </c>
-      <c r="L51" s="59"/>
+      <c r="L51" s="58"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>42086</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="53">
         <v>1188.4000000000001</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="49"/>
-      <c r="J52" s="83">
+      <c r="D52" s="55"/>
+      <c r="E52" s="48"/>
+      <c r="J52" s="82">
         <v>16.914999999999999</v>
       </c>
-      <c r="L52" s="59"/>
+      <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>42087</v>
       </c>
-      <c r="C53" s="54">
+      <c r="C53" s="53">
         <v>1192.0999999999999</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="49"/>
-      <c r="J53" s="83">
+      <c r="D53" s="55"/>
+      <c r="E53" s="48"/>
+      <c r="J53" s="82">
         <v>17.010000000000002</v>
       </c>
-      <c r="L53" s="59"/>
+      <c r="L53" s="58"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>42088</v>
       </c>
-      <c r="C54" s="54">
+      <c r="C54" s="53">
         <v>1198</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="49"/>
-      <c r="J54" s="83">
+      <c r="D54" s="55"/>
+      <c r="E54" s="48"/>
+      <c r="J54" s="82">
         <v>17.024999999999999</v>
       </c>
-      <c r="L54" s="59"/>
+      <c r="L54" s="58"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>42089</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="53">
         <v>1205.8</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="49"/>
-      <c r="J55" s="85">
+      <c r="D55" s="55"/>
+      <c r="E55" s="48"/>
+      <c r="J55" s="84">
         <v>17.164999999999999</v>
       </c>
-      <c r="L55" s="59"/>
+      <c r="L55" s="58"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>42090</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="49"/>
-      <c r="L56" s="59"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="48"/>
+      <c r="L56" s="58"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>42093</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="49"/>
-      <c r="L57" s="59"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="48"/>
+      <c r="L57" s="58"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>42094</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="49"/>
-      <c r="L58" s="59"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="48"/>
+      <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>42095</v>
       </c>
-      <c r="C59" s="54">
+      <c r="C59" s="53">
         <v>1208.7</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="49"/>
-      <c r="L59" s="59"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="48"/>
+      <c r="L59" s="58"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>42096</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="49"/>
-      <c r="L60" s="59"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="48"/>
+      <c r="L60" s="58"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>42097</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="49"/>
-      <c r="L61" s="59"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="48"/>
+      <c r="L61" s="58"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>42100</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="70">
         <v>1219.0999999999999</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="49"/>
-      <c r="L62" s="59"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="48"/>
+      <c r="L62" s="58"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>42101</v>
       </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="49"/>
-      <c r="L63" s="59"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="48"/>
+      <c r="L63" s="58"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>42102</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="49"/>
-      <c r="L64" s="59"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="48"/>
+      <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>42103</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="49"/>
-      <c r="L65" s="59"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="48"/>
+      <c r="L65" s="58"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>42104</v>
       </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="49"/>
-      <c r="L66" s="59"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="48"/>
+      <c r="L66" s="58"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>42107</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="49"/>
-      <c r="L67" s="59"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="48"/>
+      <c r="L67" s="58"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>42108</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="49"/>
-      <c r="L68" s="59"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="48"/>
+      <c r="L68" s="58"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>42109</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="49"/>
-      <c r="L69" s="59"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="48"/>
+      <c r="L69" s="58"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>42110</v>
       </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="49"/>
-      <c r="L70" s="59"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="48"/>
+      <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>42111</v>
       </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="49"/>
-      <c r="L71" s="59"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="48"/>
+      <c r="L71" s="58"/>
     </row>
     <row r="72" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>42114</v>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="64"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="63"/>
       <c r="G72" s="12"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="82"/>
-      <c r="J72" s="82"/>
-      <c r="L72" s="59"/>
-      <c r="N72" s="78">
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="L72" s="58"/>
+      <c r="N72" s="77">
         <v>15.935</v>
       </c>
     </row>
@@ -4515,31 +4594,31 @@
         <v>42115</v>
       </c>
       <c r="B73" s="17"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="65"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="64"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="L73" s="59"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="L73" s="58"/>
     </row>
     <row r="74" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>42116</v>
       </c>
       <c r="B74" s="17"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="65"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="64"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="82"/>
-      <c r="J74" s="82"/>
-      <c r="L74" s="59"/>
-      <c r="N74" s="78">
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+      <c r="L74" s="58"/>
+      <c r="N74" s="77">
         <v>15.84</v>
       </c>
     </row>
@@ -4548,33 +4627,33 @@
         <v>42117</v>
       </c>
       <c r="B75" s="17"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="65"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="64"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="82"/>
-      <c r="J75" s="82"/>
-      <c r="L75" s="59"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="81"/>
+      <c r="L75" s="58"/>
     </row>
     <row r="76" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>42118</v>
       </c>
       <c r="B76" s="17"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="65"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="3">
         <v>1175.5999999999999</v>
       </c>
       <c r="H76" s="3"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="L76" s="59"/>
-      <c r="N76" s="78">
+      <c r="I76" s="81"/>
+      <c r="J76" s="81"/>
+      <c r="L76" s="58"/>
+      <c r="N76" s="77">
         <v>15.685</v>
       </c>
     </row>
@@ -4583,15 +4662,15 @@
         <v>42121</v>
       </c>
       <c r="B77" s="17"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="65"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="64"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="82"/>
-      <c r="J77" s="82"/>
-      <c r="L77" s="59"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="81"/>
+      <c r="L77" s="58"/>
     </row>
     <row r="78" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
@@ -4600,141 +4679,184 @@
       <c r="B78" s="17">
         <v>1214.5</v>
       </c>
-      <c r="C78" s="69"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="65"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="64"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="82">
+      <c r="I78" s="81">
         <v>16.645</v>
       </c>
-      <c r="J78" s="82"/>
-      <c r="L78" s="59"/>
+      <c r="J78" s="81"/>
+      <c r="L78" s="58"/>
     </row>
     <row r="79" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>42123</v>
       </c>
       <c r="B79" s="17"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="65"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="64"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="82">
+      <c r="I79" s="81">
         <v>16.72</v>
       </c>
-      <c r="J79" s="82"/>
-      <c r="L79" s="59"/>
+      <c r="J79" s="81"/>
+      <c r="L79" s="58"/>
     </row>
     <row r="80" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>42124</v>
       </c>
       <c r="B80" s="17"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="65"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="64"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="82"/>
-      <c r="J80" s="82"/>
-      <c r="L80" s="59"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="81"/>
+      <c r="L80" s="58"/>
     </row>
     <row r="81" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>42125</v>
       </c>
       <c r="B81" s="17"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="65"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="64"/>
       <c r="G81" s="3">
         <v>1175.2</v>
       </c>
       <c r="H81" s="3"/>
-      <c r="I81" s="82"/>
-      <c r="J81" s="82"/>
-      <c r="L81" s="59"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="81"/>
+      <c r="L81" s="58"/>
     </row>
     <row r="82" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>42128</v>
       </c>
       <c r="B82" s="17"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="65"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="82"/>
-      <c r="J82" s="82"/>
-      <c r="L82" s="59"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="81"/>
+      <c r="L82" s="58"/>
     </row>
     <row r="83" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>42129</v>
       </c>
       <c r="B83" s="17"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="65"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="64"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="82"/>
-      <c r="J83" s="82"/>
-      <c r="L83" s="59"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="81"/>
+      <c r="L83" s="58"/>
     </row>
     <row r="84" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>42130</v>
       </c>
       <c r="B84" s="17"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="65"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="L84" s="59"/>
+      <c r="I84" s="81"/>
+      <c r="J84" s="81"/>
+      <c r="L84" s="58"/>
     </row>
     <row r="85" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>42131</v>
       </c>
       <c r="B85" s="17"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="65"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="64"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="82"/>
-      <c r="L85" s="59"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+      <c r="L85" s="58"/>
     </row>
     <row r="86" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>42132</v>
       </c>
       <c r="B86" s="17"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="65"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="64"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="82"/>
-      <c r="J86" s="82"/>
-      <c r="L86" s="59"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="81"/>
+      <c r="L86" s="58"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>42135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>42136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>42137</v>
+      </c>
+      <c r="C89" s="53">
+        <v>1219.0999999999999</v>
+      </c>
+      <c r="J89" s="82">
+        <v>17.245000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>42138</v>
+      </c>
+      <c r="C90" s="53">
+        <v>1226.2</v>
+      </c>
+      <c r="J90" s="82">
+        <v>17.484999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>42139</v>
+      </c>
+      <c r="C91" s="53">
+        <v>1226.3</v>
+      </c>
+      <c r="J91" s="82">
+        <v>17.594999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/future.xlsx
+++ b/future.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00\ ;[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="178" formatCode="0\ ;[Red]\(0\)"/>
@@ -77,6 +77,7 @@
     <numFmt numFmtId="180" formatCode="0.0\ ;[Red]\(0.0\)"/>
     <numFmt numFmtId="181" formatCode="0.000\ ;[Red]\(0.000\)"/>
     <numFmt numFmtId="182" formatCode="0.000\ "/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -154,7 +155,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +228,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -282,16 +289,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,6 +562,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,6 +659,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFF33CC"/>
       <color rgb="FFFF3399"/>
     </mruColors>
   </colors>
@@ -945,81 +968,81 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75"/>
-    <col min="2" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="10.75" style="5"/>
-    <col min="6" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="9.5" style="3"/>
-    <col min="10" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="9" style="7"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="10.75" style="3"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="9.5" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="9" style="5"/>
     <col min="13" max="1025" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <f>5946*0.97</f>
         <v>5767.62</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O2">
@@ -1028,142 +1051,142 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3"/>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>5754</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="I3" s="16"/>
       <c r="J3"/>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <v>4683</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>42081</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19">
         <v>5362</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="L4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>42082</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>42083</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>42086</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>42087</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>42088</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>42089</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>42090</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>42093</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>42094</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23">
         <v>5352</v>
       </c>
       <c r="I13"/>
@@ -1171,449 +1194,449 @@
       <c r="L13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>42095</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>42096</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>42097</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>42100</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>42101</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="L18" s="26">
+      <c r="L18" s="24">
         <v>4242</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>42102</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>42103</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>42104</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>42107</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="I22"/>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <v>4375</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>42108</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="I23"/>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <v>4387</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>42109</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20">
         <v>5570</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="21"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>42110</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20">
         <v>5584</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="21"/>
       <c r="I25"/>
-      <c r="J25" s="3">
+      <c r="J25" s="1">
         <v>4450</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>42111</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
       <c r="C26"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="21"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>42114</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20">
         <v>5638</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="21"/>
       <c r="I27"/>
-      <c r="J27" s="3">
+      <c r="J27" s="1">
         <v>4465</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>42115</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
         <v>5686</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="21"/>
       <c r="I28"/>
-      <c r="J28" s="3">
+      <c r="J28" s="1">
         <v>4474</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>42116</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>42117</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>42118</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>42121</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20">
         <v>5698</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="21"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>42122</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
       <c r="I33"/>
-      <c r="J33" s="27">
+      <c r="J33" s="25">
         <v>4526</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <v>42123</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="I34"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>42124</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <v>42125</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="I36"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>42128</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21">
         <v>5806</v>
       </c>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>42129</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21">
         <v>5878</v>
       </c>
       <c r="I38"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>42130</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="91">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="89">
         <v>5946</v>
       </c>
       <c r="I39"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <v>42131</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
       <c r="I40"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <v>42132</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
       <c r="I41"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <v>42135</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
       <c r="I42"/>
-      <c r="M42" s="28">
+      <c r="M42" s="26">
         <v>4370</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <v>42136</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="I43"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <v>42137</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
       <c r="I44"/>
-      <c r="M44" s="29">
+      <c r="M44" s="27">
         <v>4368</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>42138</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="I45" s="3">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="I45" s="1">
         <v>4439</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="19">
+      <c r="A46" s="17">
         <v>42139</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="I46" s="3">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="I46" s="1">
         <v>4469</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="19">
+      <c r="A47" s="17">
         <v>42142</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="19">
+      <c r="A48" s="17">
         <v>42143</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="19">
+      <c r="A49" s="17">
         <v>42144</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="F49" s="3">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="F49" s="1">
         <v>5704</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="19">
+      <c r="A50" s="17">
         <v>42145</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="19">
+      <c r="A51" s="17">
         <v>42146</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="19">
+      <c r="A52" s="17">
         <v>42149</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="19">
+      <c r="A53" s="17">
         <v>42150</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="19">
+      <c r="A54" s="17">
         <v>42151</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="19">
+      <c r="A55" s="17">
         <v>42152</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="19">
+      <c r="A56" s="17">
         <v>42153</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1652,80 +1675,80 @@
   <cols>
     <col min="1" max="1" width="11.875"/>
     <col min="2" max="3" width="8.75"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="10.375" style="30"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="10.375" style="28"/>
     <col min="6" max="11" width="8.75"/>
-    <col min="12" max="12" width="9" style="31"/>
+    <col min="12" max="12" width="9" style="29"/>
     <col min="13" max="1025" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="3" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <f>46030*0.97</f>
         <v>44649.1</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O2">
@@ -1734,85 +1757,85 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="D3" s="34">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="D3" s="32">
         <v>45660</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="36">
+      <c r="E3" s="33"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="34">
         <v>17470</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="37">
+      <c r="A4" s="35">
         <v>42018</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="35">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="33">
         <v>40040</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="39">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="37">
         <v>15580</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>42019</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="37">
+      <c r="A6" s="35">
         <v>42020</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>42023</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>42024</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>42025</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>42026</v>
       </c>
       <c r="D10"/>
@@ -1822,57 +1845,57 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>42027</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>42030</v>
       </c>
       <c r="D12"/>
-      <c r="E12" s="35">
+      <c r="E12" s="33">
         <v>39060</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>42031</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>42032</v>
       </c>
       <c r="D14"/>
-      <c r="E14" s="35">
+      <c r="E14" s="33">
         <v>39380</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>42033</v>
       </c>
       <c r="D15"/>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>38930</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="37">
+      <c r="A16" s="35">
         <v>42034</v>
       </c>
       <c r="D16"/>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>38660</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="37">
+      <c r="A17" s="35">
         <v>42037</v>
       </c>
       <c r="C17">
@@ -1882,7 +1905,7 @@
       <c r="E17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <v>42038</v>
       </c>
       <c r="C18">
@@ -1892,7 +1915,7 @@
       <c r="E18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <v>42039</v>
       </c>
       <c r="C19">
@@ -1905,14 +1928,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="37">
+      <c r="A20" s="35">
         <v>42040</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>42041</v>
       </c>
       <c r="C21">
@@ -1925,38 +1948,38 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="37">
+      <c r="A22" s="35">
         <v>42044</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="37">
+      <c r="A23" s="35">
         <v>42045</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="J23" s="41">
+      <c r="J23" s="39">
         <v>16390</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="37">
+      <c r="A24" s="35">
         <v>42046</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>42047</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="37">
+      <c r="A26" s="35">
         <v>42048</v>
       </c>
       <c r="C26">
@@ -1966,7 +1989,7 @@
       <c r="E26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="37">
+      <c r="A27" s="35">
         <v>42051</v>
       </c>
       <c r="C27">
@@ -1976,21 +1999,21 @@
       <c r="E27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="37">
+      <c r="A28" s="35">
         <v>42052</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="37">
+      <c r="A29" s="35">
         <v>42060</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="37">
+      <c r="A30" s="35">
         <v>42061</v>
       </c>
       <c r="C30">
@@ -2000,7 +2023,7 @@
       <c r="E30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>42062</v>
       </c>
       <c r="C31">
@@ -2010,24 +2033,24 @@
       <c r="E31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="37">
+      <c r="A32" s="35">
         <v>42065</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="26">
         <v>42970</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="37">
+      <c r="A33" s="35">
         <v>42066</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="37">
+      <c r="A34" s="35">
         <v>42067</v>
       </c>
       <c r="D34"/>
@@ -2037,7 +2060,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="37">
+      <c r="A35" s="35">
         <v>42068</v>
       </c>
       <c r="D35"/>
@@ -2047,7 +2070,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="37">
+      <c r="A36" s="35">
         <v>42069</v>
       </c>
       <c r="D36"/>
@@ -2057,21 +2080,21 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="37">
+      <c r="A37" s="35">
         <v>42072</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="37">
+      <c r="A38" s="35">
         <v>42073</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>42074</v>
       </c>
       <c r="D39"/>
@@ -2081,59 +2104,59 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="37">
+      <c r="A40" s="35">
         <v>42075</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="37">
+      <c r="A41" s="35">
         <v>42076</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="37">
+      <c r="A42" s="35">
         <v>42079</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="37">
+      <c r="A43" s="35">
         <v>42080</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <v>42081</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="M44" s="29">
+      <c r="M44" s="27">
         <v>15610</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>42082</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="19">
+      <c r="A46" s="17">
         <v>42083</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="19">
+      <c r="A47" s="17">
         <v>42086</v>
       </c>
       <c r="C47">
@@ -2143,7 +2166,7 @@
       <c r="E47"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="19">
+      <c r="A48" s="17">
         <v>42087</v>
       </c>
       <c r="C48">
@@ -2153,28 +2176,28 @@
       <c r="E48"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="19">
+      <c r="A49" s="17">
         <v>42088</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="19">
+      <c r="A50" s="17">
         <v>42089</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="19">
+      <c r="A51" s="17">
         <v>42090</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="19">
+      <c r="A52" s="17">
         <v>42093</v>
       </c>
       <c r="C52">
@@ -2184,28 +2207,28 @@
       <c r="E52"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="19">
+      <c r="A53" s="17">
         <v>42094</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="19">
+      <c r="A54" s="17">
         <v>42095</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="19">
+      <c r="A55" s="17">
         <v>42096</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="19">
+      <c r="A56" s="17">
         <v>42097</v>
       </c>
       <c r="D56"/>
@@ -2215,7 +2238,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="19">
+      <c r="A57" s="17">
         <v>42100</v>
       </c>
       <c r="D57"/>
@@ -2225,28 +2248,28 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="19">
+      <c r="A58" s="17">
         <v>42101</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="19">
+      <c r="A59" s="17">
         <v>42102</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="19">
+      <c r="A60" s="17">
         <v>42103</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="19">
+      <c r="A61" s="17">
         <v>42104</v>
       </c>
       <c r="D61"/>
@@ -2256,7 +2279,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="19">
+      <c r="A62" s="17">
         <v>42107</v>
       </c>
       <c r="D62"/>
@@ -2266,21 +2289,21 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="19">
+      <c r="A63" s="17">
         <v>42108</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="19">
+      <c r="A64" s="17">
         <v>42109</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="19">
+      <c r="A65" s="17">
         <v>42110</v>
       </c>
       <c r="D65"/>
@@ -2290,7 +2313,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="19">
+      <c r="A66" s="17">
         <v>42111</v>
       </c>
       <c r="D66"/>
@@ -2300,373 +2323,373 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="19">
+      <c r="A67" s="17">
         <v>42114</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="19">
+      <c r="A68" s="17">
         <v>42115</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="19">
+      <c r="A69" s="17">
         <v>42116</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="19">
+      <c r="A70" s="17">
         <v>42117</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="19">
+      <c r="A71" s="17">
         <v>42118</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="19">
+      <c r="A72" s="17">
         <v>42121</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1">
         <v>16830</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="19">
+      <c r="A73" s="17">
         <v>42122</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1">
         <v>17025</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="19">
+      <c r="A74" s="17">
         <v>42123</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="19">
+      <c r="A75" s="17">
         <v>42124</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1">
         <v>17040</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="19">
+      <c r="A76" s="17">
         <v>42125</v>
       </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="19">
+      <c r="A77" s="17">
         <v>42128</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20">
         <v>45640</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3">
+      <c r="D77" s="21"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1">
         <v>17235</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="19">
+      <c r="A78" s="17">
         <v>42129</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20">
         <v>45650</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="19">
+      <c r="A79" s="17">
         <v>42130</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="23">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21">
         <v>46030</v>
       </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="92">
+      <c r="E79" s="41"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="90">
         <v>17390</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="19">
+      <c r="A80" s="17">
         <v>42131</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="19">
+      <c r="A81" s="17">
         <v>42132</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="19">
+      <c r="A82" s="17">
         <v>42135</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
     </row>
     <row r="83" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="19">
+      <c r="A83" s="17">
         <v>42136</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="19">
+      <c r="A84" s="17">
         <v>42137</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="19">
+      <c r="A85" s="17">
         <v>42138</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A86" s="19">
+      <c r="A86" s="17">
         <v>42139</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A87" s="19">
+      <c r="A87" s="17">
         <v>42142</v>
       </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="19">
+      <c r="A88" s="17">
         <v>42143</v>
       </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A89" s="19">
+      <c r="A89" s="17">
         <v>42144</v>
       </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
       <c r="M89">
         <v>16670</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A90" s="19">
+      <c r="A90" s="17">
         <v>42145</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A91" s="19">
+      <c r="A91" s="17">
         <v>42146</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2704,105 +2727,105 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11"/>
-    <col min="2" max="3" width="9" style="3"/>
+    <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.75"/>
-    <col min="5" max="5" width="9" style="31"/>
+    <col min="5" max="5" width="9" style="29"/>
     <col min="6" max="1025" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <f>14240*1.03</f>
         <v>14667.2</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3"/>
-      <c r="D3" s="36">
+      <c r="D3" s="34">
         <v>14470</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="31"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="37">
+      <c r="A4" s="35">
         <v>41984</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="E4" s="45">
+      <c r="E4" s="43">
         <v>11745</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>41985</v>
       </c>
       <c r="B5"/>
@@ -2810,17 +2833,17 @@
       <c r="E5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="37">
+      <c r="A6" s="35">
         <v>41988</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>12320</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>41989</v>
       </c>
       <c r="B7"/>
@@ -2828,7 +2851,7 @@
       <c r="E7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>41990</v>
       </c>
       <c r="B8"/>
@@ -2836,7 +2859,7 @@
       <c r="E8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>41991</v>
       </c>
       <c r="B9"/>
@@ -2844,7 +2867,7 @@
       <c r="E9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>41992</v>
       </c>
       <c r="B10"/>
@@ -2852,7 +2875,7 @@
       <c r="E10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>41995</v>
       </c>
       <c r="B11"/>
@@ -2860,7 +2883,7 @@
       <c r="E11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>41996</v>
       </c>
       <c r="B12"/>
@@ -2868,7 +2891,7 @@
       <c r="E12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>41997</v>
       </c>
       <c r="B13"/>
@@ -2876,7 +2899,7 @@
       <c r="E13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>41998</v>
       </c>
       <c r="B14"/>
@@ -2884,7 +2907,7 @@
       <c r="E14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>41999</v>
       </c>
       <c r="B15"/>
@@ -2892,1015 +2915,1015 @@
       <c r="E15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="37">
+      <c r="A16" s="35">
         <v>42002</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>12480</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="37">
+      <c r="A17" s="35">
         <v>42003</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12">
         <v>13060</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="39"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <v>42004</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="46">
+      <c r="B18" s="12"/>
+      <c r="C18" s="44">
         <v>13245</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="31"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <v>42005</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="47"/>
-      <c r="L19" s="31"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="45"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="37">
+      <c r="A20" s="35">
         <v>42006</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="47"/>
-      <c r="L20" s="31"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="45"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>42009</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="47"/>
-      <c r="L21" s="31"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="45"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="37">
+      <c r="A22" s="35">
         <v>42010</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="47"/>
-      <c r="L22" s="31"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="45"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="37">
+      <c r="A23" s="35">
         <v>42011</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="39"/>
-      <c r="L23" s="31"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="37"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="37">
+      <c r="A24" s="35">
         <v>42012</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="47"/>
-      <c r="L24" s="31"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="45"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>42013</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="39"/>
-      <c r="L25" s="31"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="37"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="37">
+      <c r="A26" s="35">
         <v>42016</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="47"/>
-      <c r="L26" s="31"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="45"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="37">
+      <c r="A27" s="35">
         <v>42017</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="45"/>
       <c r="F27">
         <v>12590</v>
       </c>
-      <c r="L27" s="31"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="37">
+      <c r="A28" s="35">
         <v>42018</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="29">
+      <c r="D28" s="4"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="27">
         <v>12170</v>
       </c>
-      <c r="L28" s="31"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="37">
+      <c r="A29" s="35">
         <v>42019</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="47"/>
-      <c r="L29" s="31"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="45"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="37">
+      <c r="A30" s="35">
         <v>42020</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="47"/>
-      <c r="L30" s="31"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="45"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>42023</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="47"/>
-      <c r="L31" s="31"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="45"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="37">
+      <c r="A32" s="35">
         <v>42024</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="47"/>
-      <c r="J32" s="23"/>
-      <c r="L32" s="31"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="45"/>
+      <c r="J32" s="21"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="37">
+      <c r="A33" s="35">
         <v>42025</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>12695</v>
       </c>
       <c r="C33"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="47"/>
-      <c r="L33" s="31"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="45"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="37">
+      <c r="A34" s="35">
         <v>42026</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>12830</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="47"/>
-      <c r="L34" s="31"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="45"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="37">
+      <c r="A35" s="35">
         <v>42027</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="47"/>
-      <c r="L35" s="31"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="45"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="37">
+      <c r="A36" s="35">
         <v>42030</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="47"/>
-      <c r="L36" s="31"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="45"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="37">
+      <c r="A37" s="35">
         <v>42031</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>12905</v>
       </c>
       <c r="C37"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="47"/>
-      <c r="L37" s="31"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="45"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="37">
+      <c r="A38" s="35">
         <v>42032</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="47"/>
-      <c r="L38" s="31"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="45"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>42033</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="47"/>
-      <c r="L39" s="31"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="45"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="37">
+      <c r="A40" s="35">
         <v>42034</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="47"/>
-      <c r="L40" s="31"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="45"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="37">
+      <c r="A41" s="35">
         <v>42037</v>
       </c>
       <c r="B41"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="47"/>
-      <c r="L41" s="31"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="45"/>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="37">
+      <c r="A42" s="35">
         <v>42038</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="47"/>
-      <c r="L42" s="31"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="45"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="37">
+      <c r="A43" s="35">
         <v>42039</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>13060</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="47"/>
-      <c r="L43" s="31"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="45"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="37">
+      <c r="A44" s="35">
         <v>42040</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="47"/>
-      <c r="L44" s="31"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="45"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="37">
+      <c r="A45" s="35">
         <v>42041</v>
       </c>
       <c r="B45"/>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>13365</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="47"/>
-      <c r="L45" s="31"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="45"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="37">
+      <c r="A46" s="35">
         <v>42044</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="47"/>
-      <c r="L46" s="31"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="45"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="37">
+      <c r="A47" s="35">
         <v>42045</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="47"/>
-      <c r="L47" s="31"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="45"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="37">
+      <c r="A48" s="35">
         <v>42046</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="47"/>
-      <c r="L48" s="31"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="45"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="37">
+      <c r="A49" s="35">
         <v>42047</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="47"/>
-      <c r="L49" s="31"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="45"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="37">
+      <c r="A50" s="35">
         <v>42048</v>
       </c>
       <c r="B50"/>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>13400</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="47"/>
-      <c r="L50" s="31"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="45"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="37">
+      <c r="A51" s="35">
         <v>42051</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="47"/>
-      <c r="L51" s="31"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="45"/>
+      <c r="L51" s="29"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="37">
+      <c r="A52" s="35">
         <v>42052</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="47"/>
-      <c r="L52" s="31"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="45"/>
+      <c r="L52" s="29"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="37">
+      <c r="A53" s="35">
         <v>42060</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="47"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="23"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="45"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="21"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="37">
+      <c r="A54" s="35">
         <v>42061</v>
       </c>
       <c r="B54"/>
-      <c r="C54" s="48">
+      <c r="C54" s="46">
         <v>13575</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="47"/>
-      <c r="L54" s="31"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="45"/>
+      <c r="L54" s="29"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="37">
+      <c r="A55" s="35">
         <v>42062</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="47"/>
-      <c r="L55" s="31"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="45"/>
+      <c r="L55" s="29"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="37">
+      <c r="A56" s="35">
         <v>42065</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="47"/>
-      <c r="L56" s="31"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="45"/>
+      <c r="L56" s="29"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="37">
+      <c r="A57" s="35">
         <v>42066</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="47"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="45"/>
       <c r="F57">
         <v>12895</v>
       </c>
-      <c r="L57" s="31"/>
+      <c r="L57" s="29"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="37">
+      <c r="A58" s="35">
         <v>42067</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="47"/>
-      <c r="L58" s="31"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="45"/>
+      <c r="L58" s="29"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="37">
+      <c r="A59" s="35">
         <v>42068</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="47"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="45"/>
       <c r="F59">
         <v>12810</v>
       </c>
-      <c r="L59" s="31"/>
+      <c r="L59" s="29"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="37">
+      <c r="A60" s="35">
         <v>42069</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="47"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="45"/>
       <c r="F60">
         <v>12700</v>
       </c>
-      <c r="L60" s="31"/>
+      <c r="L60" s="29"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="37">
+      <c r="A61" s="35">
         <v>42072</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="47"/>
-      <c r="L61" s="31"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="45"/>
+      <c r="L61" s="29"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="37">
+      <c r="A62" s="35">
         <v>42073</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="47"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="45"/>
       <c r="F62">
         <v>12490</v>
       </c>
-      <c r="L62" s="31"/>
+      <c r="L62" s="29"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="37">
+      <c r="A63" s="35">
         <v>42074</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="47"/>
-      <c r="L63" s="31"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="45"/>
+      <c r="L63" s="29"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="37">
+      <c r="A64" s="35">
         <v>42075</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="47"/>
-      <c r="L64" s="31"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="45"/>
+      <c r="L64" s="29"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="37">
+      <c r="A65" s="35">
         <v>42076</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="47"/>
-      <c r="L65" s="31"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="45"/>
+      <c r="L65" s="29"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="37">
+      <c r="A66" s="35">
         <v>42079</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="47"/>
-      <c r="L66" s="31"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="45"/>
+      <c r="L66" s="29"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="37">
+      <c r="A67" s="35">
         <v>42080</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="47"/>
-      <c r="L67" s="31"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="45"/>
+      <c r="L67" s="29"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="19">
+      <c r="A68" s="17">
         <v>42081</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="47"/>
-      <c r="L68" s="31"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="45"/>
+      <c r="L68" s="29"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="19">
+      <c r="A69" s="17">
         <v>42082</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="47"/>
-      <c r="L69" s="31"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="45"/>
+      <c r="L69" s="29"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="19">
+      <c r="A70" s="17">
         <v>42083</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="47"/>
-      <c r="L70" s="31"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="45"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="19">
+      <c r="A71" s="17">
         <v>42086</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="1">
         <v>12990</v>
       </c>
       <c r="C71"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="47"/>
-      <c r="L71" s="31"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="45"/>
+      <c r="L71" s="29"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="19">
+      <c r="A72" s="17">
         <v>42087</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="1">
         <v>13050</v>
       </c>
       <c r="C72"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="47"/>
-      <c r="L72" s="31"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="45"/>
+      <c r="L72" s="29"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="19">
+      <c r="A73" s="17">
         <v>42088</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="47"/>
-      <c r="L73" s="31"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="45"/>
+      <c r="L73" s="29"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="19">
+      <c r="A74" s="17">
         <v>42089</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="1">
         <v>13065</v>
       </c>
       <c r="C74"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="47"/>
-      <c r="L74" s="31"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="45"/>
+      <c r="L74" s="29"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="19">
+      <c r="A75" s="17">
         <v>42090</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="47"/>
-      <c r="L75" s="31"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="45"/>
+      <c r="L75" s="29"/>
     </row>
     <row r="76" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="19">
+      <c r="A76" s="17">
         <v>42093</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15">
         <v>12640</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="L76" s="31"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="L76" s="29"/>
     </row>
     <row r="77" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="19">
+      <c r="A77" s="17">
         <v>42094</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
         <v>12540</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="L77" s="31"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="L77" s="29"/>
     </row>
     <row r="78" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="19">
+      <c r="A78" s="17">
         <v>42095</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="L78" s="31"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="19">
+      <c r="A79" s="17">
         <v>42096</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="L79" s="31"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="L79" s="29"/>
     </row>
     <row r="80" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="19">
+      <c r="A80" s="17">
         <v>42097</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="L80" s="31"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="L80" s="29"/>
     </row>
     <row r="81" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="19">
+      <c r="A81" s="17">
         <v>42100</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="L81" s="31"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="L81" s="29"/>
     </row>
     <row r="82" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="19">
+      <c r="A82" s="17">
         <v>42101</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="L82" s="31"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="L82" s="29"/>
     </row>
     <row r="83" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="19">
+      <c r="A83" s="17">
         <v>42102</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="L83" s="31"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="L83" s="29"/>
     </row>
     <row r="84" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="19">
+      <c r="A84" s="17">
         <v>42103</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="48">
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="46">
         <v>12300</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="L84" s="31"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="L84" s="29"/>
     </row>
     <row r="85" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="19">
+      <c r="A85" s="17">
         <v>42104</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="L85" s="31"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="L85" s="29"/>
     </row>
     <row r="86" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A86" s="19">
+      <c r="A86" s="17">
         <v>42107</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="L86" s="31"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="L86" s="29"/>
     </row>
     <row r="87" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A87" s="19">
+      <c r="A87" s="17">
         <v>42108</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="20">
         <v>12670</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="L87" s="31"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="L87" s="29"/>
     </row>
     <row r="88" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="19">
+      <c r="A88" s="17">
         <v>42109</v>
       </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="L88" s="31"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="L88" s="29"/>
     </row>
     <row r="89" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A89" s="19">
+      <c r="A89" s="17">
         <v>42110</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="20">
         <v>12760</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="L89" s="31"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="L89" s="29"/>
     </row>
     <row r="90" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A90" s="19">
+      <c r="A90" s="17">
         <v>42111</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="L90" s="31"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="L90" s="29"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A91" s="19">
+      <c r="A91" s="17">
         <v>42114</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A92" s="19">
+      <c r="A92" s="17">
         <v>42115</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="1">
         <v>13230</v>
       </c>
       <c r="C92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A93" s="19">
+      <c r="A93" s="17">
         <v>42116</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A94" s="19">
+      <c r="A94" s="17">
         <v>42117</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="1">
         <v>13335</v>
       </c>
       <c r="C94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A95" s="19">
+      <c r="A95" s="17">
         <v>42118</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="1">
         <v>13460</v>
       </c>
       <c r="C95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A96" s="19">
+      <c r="A96" s="17">
         <v>42121</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="1">
         <v>14195</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="19">
+      <c r="A97" s="17">
         <v>42122</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="1">
         <v>14280</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="19">
+      <c r="A98" s="17">
         <v>42123</v>
       </c>
       <c r="C98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="19">
+      <c r="A99" s="17">
         <v>42124</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="1">
         <v>14470</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="19">
+      <c r="A100" s="17">
         <v>42125</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="19">
+      <c r="A101" s="17">
         <v>42128</v>
       </c>
-      <c r="D101" s="51">
+      <c r="D101" s="49">
         <v>15005</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="19">
+      <c r="A102" s="17">
         <v>42129</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="19">
+      <c r="A103" s="17">
         <v>42130</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="19">
+      <c r="A104" s="17">
         <v>42131</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="19">
+      <c r="A105" s="17">
         <v>42132</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="19">
+      <c r="A106" s="17">
         <v>42135</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="19">
+      <c r="A107" s="17">
         <v>42136</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="19">
+      <c r="A108" s="17">
         <v>42137</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="19">
+      <c r="A109" s="17">
         <v>42138</v>
       </c>
       <c r="G109">
@@ -3908,17 +3931,17 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="19">
+      <c r="A110" s="17">
         <v>42139</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="19">
+      <c r="A111" s="17">
         <v>42142</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="19">
+      <c r="A112" s="17">
         <v>42143</v>
       </c>
       <c r="G112">
@@ -3926,42 +3949,42 @@
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="19">
+      <c r="A113" s="17">
         <v>42144</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="19">
+      <c r="A114" s="17">
         <v>42145</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="19">
+      <c r="A115" s="17">
         <v>42146</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="19">
+      <c r="A116" s="17">
         <v>42149</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="19">
+      <c r="A117" s="17">
         <v>42150</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="19">
+      <c r="A118" s="17">
         <v>42151</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="19">
+      <c r="A119" s="17">
         <v>42152</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="19">
+      <c r="A120" s="17">
         <v>42153</v>
       </c>
     </row>
@@ -3993,94 +4016,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O90" sqref="O90"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.75"/>
     <col min="2" max="2" width="8.75"/>
-    <col min="3" max="3" width="9" style="52"/>
-    <col min="4" max="4" width="9.625" style="52"/>
-    <col min="5" max="5" width="9.625" style="53"/>
-    <col min="6" max="6" width="9" style="52"/>
-    <col min="7" max="8" width="8.75"/>
-    <col min="9" max="10" width="9" style="54"/>
-    <col min="11" max="11" width="9.625" style="55"/>
-    <col min="12" max="12" width="9.625" style="53"/>
-    <col min="13" max="14" width="9" style="56"/>
+    <col min="3" max="3" width="9" style="50"/>
+    <col min="4" max="4" width="9.625" style="50"/>
+    <col min="5" max="5" width="9.625" style="51"/>
+    <col min="6" max="6" width="9" style="50"/>
+    <col min="7" max="7" width="8.75" style="95"/>
+    <col min="8" max="8" width="8.75"/>
+    <col min="9" max="10" width="9" style="52"/>
+    <col min="11" max="11" width="9.625" style="53"/>
+    <col min="12" max="12" width="9.625" style="51"/>
+    <col min="13" max="14" width="9" style="54"/>
     <col min="15" max="1025" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="3" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <f>1226.3*0.97</f>
         <v>1189.511</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="63" t="s">
         <v>9</v>
       </c>
       <c r="O2">
@@ -4089,161 +4113,161 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="66">
+      <c r="E3" s="64">
         <v>1142.9000000000001</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70">
+      <c r="F3" s="65"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68">
         <v>15.43</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="37">
+      <c r="A4" s="35">
         <v>42018</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="72"/>
       <c r="M4"/>
       <c r="N4"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>42019</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5"/>
-      <c r="L5" s="75"/>
+      <c r="L5" s="73"/>
       <c r="M5"/>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="37">
+      <c r="A6" s="35">
         <v>42020</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
       <c r="F6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" s="75"/>
+      <c r="L6" s="73"/>
       <c r="M6"/>
       <c r="N6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>42023</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
       <c r="F7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7" s="75"/>
+      <c r="L7" s="73"/>
       <c r="M7"/>
       <c r="N7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>42024</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
       <c r="F8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" s="75"/>
+      <c r="L8" s="73"/>
       <c r="M8"/>
       <c r="N8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>42025</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
       <c r="F9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" s="75"/>
+      <c r="L9" s="73"/>
       <c r="M9"/>
       <c r="N9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>42026</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="78">
+      <c r="D10" s="76">
         <v>1301.5</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="75"/>
       <c r="F10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="79">
+      <c r="K10" s="77">
         <v>18.385000000000002</v>
       </c>
-      <c r="L10" s="75"/>
+      <c r="L10" s="73"/>
       <c r="M10"/>
       <c r="N10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>42027</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
       <c r="F11"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="L11" s="75"/>
+      <c r="L11" s="73"/>
       <c r="M11"/>
       <c r="N11"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>42030</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="71"/>
       <c r="F12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -4252,1217 +4276,1223 @@
       <c r="N12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>42031</v>
       </c>
       <c r="C13"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
       <c r="F13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="L13" s="75"/>
+      <c r="L13" s="73"/>
       <c r="M13"/>
       <c r="N13"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>42032</v>
       </c>
       <c r="C14"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="71"/>
       <c r="F14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="L14" s="75"/>
+      <c r="L14" s="73"/>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>42033</v>
       </c>
       <c r="C15"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="52">
+      <c r="D15" s="74"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="50">
         <v>1256.0999999999999</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="56">
+      <c r="L15" s="73"/>
+      <c r="M15" s="54">
         <v>16.8</v>
       </c>
       <c r="N15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="37">
+      <c r="A16" s="35">
         <v>42034</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="74"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="L16" s="75"/>
+      <c r="L16" s="73"/>
       <c r="M16"/>
       <c r="N16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="37">
+      <c r="A17" s="35">
         <v>42037</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="L17" s="75"/>
+      <c r="L17" s="73"/>
       <c r="M17"/>
       <c r="N17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <v>42038</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
       <c r="F18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="L18" s="75"/>
+      <c r="L18" s="73"/>
       <c r="M18"/>
       <c r="N18"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <v>42039</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
       <c r="F19"/>
       <c r="I19"/>
       <c r="J19"/>
-      <c r="L19" s="75"/>
+      <c r="L19" s="73"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="37">
+      <c r="A20" s="35">
         <v>42040</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
       <c r="F20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="L20" s="75"/>
+      <c r="L20" s="73"/>
       <c r="M20"/>
       <c r="N20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>42041</v>
       </c>
       <c r="C21"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="52">
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="50">
         <v>1235</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="56">
+      <c r="L21" s="73"/>
+      <c r="M21" s="54">
         <v>16.73</v>
       </c>
       <c r="N21"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="37">
+      <c r="A22" s="35">
         <v>42044</v>
       </c>
       <c r="C22"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
       <c r="F22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="L22" s="75"/>
+      <c r="L22" s="73"/>
       <c r="M22"/>
       <c r="N22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="37">
+      <c r="A23" s="35">
         <v>42045</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="52">
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="50">
         <v>1232.5999999999999</v>
       </c>
       <c r="I23"/>
-      <c r="J23" s="80"/>
-      <c r="L23" s="75"/>
+      <c r="J23" s="78"/>
+      <c r="L23" s="73"/>
       <c r="M23"/>
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="37">
+      <c r="A24" s="35">
         <v>42046</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="52">
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="50">
         <v>1220</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="L24" s="75"/>
+      <c r="L24" s="73"/>
       <c r="M24"/>
       <c r="N24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>42047</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
       <c r="F25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="L25" s="75"/>
+      <c r="L25" s="73"/>
       <c r="M25"/>
       <c r="N25"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="37">
+      <c r="A26" s="35">
         <v>42048</v>
       </c>
       <c r="C26"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
       <c r="F26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="L26" s="75"/>
+      <c r="L26" s="73"/>
       <c r="M26"/>
       <c r="N26"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="37">
+      <c r="A27" s="35">
         <v>42051</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
       <c r="F27"/>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="L27" s="75"/>
+      <c r="L27" s="73"/>
       <c r="M27"/>
       <c r="N27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="37">
+      <c r="A28" s="35">
         <v>42052</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="52">
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="50">
         <v>1209</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="56">
+      <c r="L28" s="73"/>
+      <c r="M28" s="54">
         <v>16.425000000000001</v>
       </c>
       <c r="N28"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="37">
+      <c r="A29" s="35">
         <v>42053</v>
       </c>
       <c r="C29"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="52">
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="50">
         <v>1200.5999999999999</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="56">
+      <c r="L29" s="73"/>
+      <c r="M29" s="54">
         <v>16.309999999999999</v>
       </c>
       <c r="N29"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="37">
+      <c r="A30" s="35">
         <v>42054</v>
       </c>
       <c r="C30"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30"/>
       <c r="I30"/>
       <c r="J30"/>
-      <c r="L30" s="75"/>
+      <c r="L30" s="73"/>
       <c r="M30"/>
       <c r="N30"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>42055</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31"/>
       <c r="I31"/>
       <c r="J31"/>
-      <c r="L31" s="75"/>
+      <c r="L31" s="73"/>
       <c r="M31"/>
       <c r="N31"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="37">
+      <c r="A32" s="35">
         <v>42058</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="L32" s="75"/>
+      <c r="L32" s="73"/>
       <c r="M32"/>
       <c r="N32"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="37">
+      <c r="A33" s="35">
         <v>42059</v>
       </c>
       <c r="C33"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="52">
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="50">
         <v>1197.7</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="56">
+      <c r="L33" s="73"/>
+      <c r="M33" s="54">
         <v>16.245000000000001</v>
       </c>
       <c r="N33"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="37">
+      <c r="A34" s="35">
         <v>42060</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
       <c r="F34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="L34" s="75"/>
+      <c r="L34" s="73"/>
       <c r="M34"/>
       <c r="N34"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="37">
+      <c r="A35" s="35">
         <v>42061</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="77"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
       <c r="F35"/>
       <c r="I35"/>
       <c r="J35"/>
-      <c r="L35" s="75"/>
+      <c r="L35" s="73"/>
       <c r="M35"/>
       <c r="N35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="37">
+      <c r="A36" s="35">
         <v>42062</v>
       </c>
       <c r="C36"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="77"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="L36" s="75"/>
+      <c r="L36" s="73"/>
       <c r="M36"/>
       <c r="N36"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="37">
+      <c r="A37" s="35">
         <v>42065</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="L37" s="75"/>
+      <c r="L37" s="73"/>
       <c r="M37"/>
       <c r="N37"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="37">
+      <c r="A38" s="35">
         <v>42066</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="L38" s="75"/>
+      <c r="L38" s="73"/>
       <c r="M38"/>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>42067</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
       <c r="F39"/>
       <c r="I39"/>
       <c r="J39"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="56">
+      <c r="L39" s="73"/>
+      <c r="M39" s="54">
         <v>16.184999999999999</v>
       </c>
       <c r="N39"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="37">
+      <c r="A40" s="35">
         <v>42068</v>
       </c>
       <c r="C40"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="52">
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="50">
         <v>1196.8</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="L40" s="75"/>
+      <c r="L40" s="73"/>
       <c r="M40"/>
       <c r="N40"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="37">
+      <c r="A41" s="35">
         <v>42069</v>
       </c>
       <c r="C41"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="52">
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="50">
         <v>1165</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="56">
+      <c r="L41" s="73"/>
+      <c r="M41" s="54">
         <v>15.835000000000001</v>
       </c>
       <c r="N41"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="37">
+      <c r="A42" s="35">
         <v>42072</v>
       </c>
       <c r="C42"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
       <c r="F42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="56">
+      <c r="L42" s="73"/>
+      <c r="M42" s="54">
         <v>15.8</v>
       </c>
       <c r="N42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="37">
+      <c r="A43" s="35">
         <v>42073</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="52">
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="50">
         <v>1160.8</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="56">
+      <c r="L43" s="73"/>
+      <c r="M43" s="54">
         <v>15.66</v>
       </c>
       <c r="N43"/>
     </row>
     <row r="44" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="37">
+      <c r="A44" s="35">
         <v>42074</v>
       </c>
       <c r="C44"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="52">
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="50">
         <v>1151.3</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="L44" s="70">
+      <c r="L44" s="68">
         <v>15.39</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="37">
+      <c r="A45" s="35">
         <v>42075</v>
       </c>
       <c r="C45"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="77"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
       <c r="F45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="L45" s="75"/>
+      <c r="L45" s="73"/>
       <c r="M45"/>
       <c r="N45"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="37">
+      <c r="A46" s="35">
         <v>42076</v>
       </c>
       <c r="C46"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="77"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="75"/>
       <c r="F46"/>
       <c r="I46"/>
       <c r="J46"/>
-      <c r="L46" s="75"/>
+      <c r="L46" s="73"/>
       <c r="M46"/>
       <c r="N46"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="37">
+      <c r="A47" s="35">
         <v>42079</v>
       </c>
       <c r="C47"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="77"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="75"/>
       <c r="F47"/>
       <c r="I47"/>
       <c r="J47"/>
-      <c r="L47" s="75"/>
+      <c r="L47" s="73"/>
       <c r="M47"/>
       <c r="N47"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="37">
+      <c r="A48" s="35">
         <v>42080</v>
       </c>
       <c r="C48"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="82">
+      <c r="D48" s="74"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="80">
         <v>1148.9000000000001</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="L48" s="75"/>
+      <c r="L48" s="73"/>
       <c r="M48"/>
       <c r="N48"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="19">
+      <c r="A49" s="17">
         <v>42081</v>
       </c>
       <c r="C49"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
       <c r="F49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="83"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="81"/>
       <c r="N49"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="19">
+      <c r="A50" s="17">
         <v>42082</v>
       </c>
       <c r="C50"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="75"/>
       <c r="F50"/>
       <c r="I50"/>
       <c r="J50"/>
-      <c r="L50" s="75"/>
+      <c r="L50" s="73"/>
       <c r="N50"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="19">
+      <c r="A51" s="17">
         <v>42083</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="50">
         <v>1185.3</v>
       </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="77"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="75"/>
       <c r="F51"/>
       <c r="I51"/>
-      <c r="J51" s="54">
+      <c r="J51" s="52">
         <v>16.91</v>
       </c>
-      <c r="L51" s="75"/>
+      <c r="L51" s="73"/>
       <c r="N51"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="19">
+      <c r="A52" s="17">
         <v>42086</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="50">
         <v>1188.4000000000001</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="77"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="75"/>
       <c r="F52"/>
       <c r="I52"/>
-      <c r="J52" s="54">
+      <c r="J52" s="52">
         <v>16.914999999999999</v>
       </c>
-      <c r="L52" s="75"/>
+      <c r="L52" s="73"/>
       <c r="N52"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="19">
+      <c r="A53" s="17">
         <v>42087</v>
       </c>
-      <c r="C53" s="52">
+      <c r="C53" s="50">
         <v>1192.0999999999999</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="77"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="75"/>
       <c r="F53"/>
       <c r="I53"/>
-      <c r="J53" s="54">
+      <c r="J53" s="52">
         <v>17.010000000000002</v>
       </c>
-      <c r="L53" s="75"/>
+      <c r="L53" s="73"/>
       <c r="N53"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" s="19">
+      <c r="A54" s="17">
         <v>42088</v>
       </c>
-      <c r="C54" s="52">
+      <c r="C54" s="50">
         <v>1198</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54"/>
       <c r="I54"/>
-      <c r="J54" s="54">
+      <c r="J54" s="52">
         <v>17.024999999999999</v>
       </c>
-      <c r="L54" s="75"/>
+      <c r="L54" s="73"/>
       <c r="N54"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="19">
+      <c r="A55" s="17">
         <v>42089</v>
       </c>
-      <c r="C55" s="52">
+      <c r="C55" s="50">
         <v>1205.8</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="77"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="75"/>
       <c r="F55"/>
       <c r="I55"/>
-      <c r="J55" s="84">
+      <c r="J55" s="82">
         <v>17.164999999999999</v>
       </c>
-      <c r="L55" s="75"/>
+      <c r="L55" s="73"/>
       <c r="N55"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="19">
+      <c r="A56" s="17">
         <v>42090</v>
       </c>
       <c r="C56"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="75"/>
       <c r="F56"/>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="L56" s="75"/>
+      <c r="L56" s="73"/>
       <c r="N56"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="19">
+      <c r="A57" s="17">
         <v>42093</v>
       </c>
       <c r="C57"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="77"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="75"/>
       <c r="F57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="L57" s="75"/>
+      <c r="L57" s="73"/>
       <c r="N57"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="19">
+      <c r="A58" s="17">
         <v>42094</v>
       </c>
       <c r="C58"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="77"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="75"/>
       <c r="F58"/>
       <c r="I58"/>
       <c r="J58"/>
-      <c r="L58" s="75"/>
+      <c r="L58" s="73"/>
       <c r="N58"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="19">
+      <c r="A59" s="17">
         <v>42095</v>
       </c>
-      <c r="C59" s="52">
+      <c r="C59" s="50">
         <v>1208.7</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="77"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="75"/>
       <c r="F59"/>
       <c r="I59"/>
       <c r="J59"/>
-      <c r="L59" s="75"/>
+      <c r="L59" s="73"/>
       <c r="N59"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60" s="19">
+      <c r="A60" s="17">
         <v>42096</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="77"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="75"/>
       <c r="F60"/>
       <c r="I60"/>
       <c r="J60"/>
-      <c r="L60" s="75"/>
+      <c r="L60" s="73"/>
       <c r="N60"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="19">
+      <c r="A61" s="17">
         <v>42097</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="77"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="75"/>
       <c r="F61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="L61" s="75"/>
+      <c r="L61" s="73"/>
       <c r="N61"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="19">
+      <c r="A62" s="17">
         <v>42100</v>
       </c>
-      <c r="C62" s="85">
+      <c r="C62" s="83">
         <v>1219.0999999999999</v>
       </c>
-      <c r="D62" s="76"/>
-      <c r="E62" s="77"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="75"/>
       <c r="F62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="L62" s="75"/>
+      <c r="L62" s="73"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" s="19">
+      <c r="A63" s="17">
         <v>42101</v>
       </c>
       <c r="C63"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="77"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="75"/>
       <c r="F63"/>
       <c r="I63"/>
       <c r="J63"/>
-      <c r="L63" s="75"/>
+      <c r="L63" s="73"/>
       <c r="N63"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" s="19">
+      <c r="A64" s="17">
         <v>42102</v>
       </c>
       <c r="C64"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="77"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="75"/>
       <c r="F64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="L64" s="75"/>
+      <c r="L64" s="73"/>
       <c r="N64"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="19">
+      <c r="A65" s="17">
         <v>42103</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="77"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="75"/>
       <c r="F65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="L65" s="75"/>
+      <c r="L65" s="73"/>
       <c r="N65"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="19">
+      <c r="A66" s="17">
         <v>42104</v>
       </c>
       <c r="C66"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="77"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="75"/>
       <c r="F66"/>
       <c r="I66"/>
       <c r="J66"/>
-      <c r="L66" s="75"/>
+      <c r="L66" s="73"/>
       <c r="N66"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="19">
+      <c r="A67" s="17">
         <v>42107</v>
       </c>
       <c r="C67"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="77"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="75"/>
       <c r="F67"/>
       <c r="I67"/>
       <c r="J67"/>
-      <c r="L67" s="75"/>
+      <c r="L67" s="73"/>
       <c r="N67"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="19">
+      <c r="A68" s="17">
         <v>42108</v>
       </c>
       <c r="C68"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="77"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="75"/>
       <c r="F68"/>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="L68" s="75"/>
+      <c r="L68" s="73"/>
       <c r="N68"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A69" s="19">
+      <c r="A69" s="17">
         <v>42109</v>
       </c>
       <c r="C69"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="77"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="75"/>
       <c r="F69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="L69" s="75"/>
+      <c r="L69" s="73"/>
       <c r="N69"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70" s="19">
+      <c r="A70" s="17">
         <v>42110</v>
       </c>
       <c r="C70"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="77"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="75"/>
       <c r="F70"/>
       <c r="I70"/>
       <c r="J70"/>
-      <c r="L70" s="75"/>
+      <c r="L70" s="73"/>
       <c r="N70"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="19">
+      <c r="A71" s="17">
         <v>42111</v>
       </c>
       <c r="C71"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="77"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="75"/>
       <c r="F71"/>
       <c r="I71"/>
       <c r="J71"/>
-      <c r="L71" s="75"/>
+      <c r="L71" s="73"/>
       <c r="N71"/>
     </row>
     <row r="72" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="19">
+      <c r="A72" s="17">
         <v>42114</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="L72" s="75"/>
-      <c r="N72" s="56">
+      <c r="B72" s="12"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="L72" s="73"/>
+      <c r="N72" s="54">
         <v>15.935</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="19">
+      <c r="A73" s="17">
         <v>42115</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="L73" s="75"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="L73" s="73"/>
       <c r="N73"/>
     </row>
     <row r="74" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="19">
+      <c r="A74" s="17">
         <v>42116</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="L74" s="75"/>
-      <c r="N74" s="56">
+      <c r="B74" s="20"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="L74" s="73"/>
+      <c r="N74" s="54">
         <v>15.84</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="19">
+      <c r="A75" s="17">
         <v>42117</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="L75" s="75"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="L75" s="73"/>
       <c r="N75"/>
     </row>
     <row r="76" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="19">
+      <c r="A76" s="17">
         <v>42118</v>
       </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="3">
+      <c r="B76" s="20"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="96">
         <v>1175.5999999999999</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="L76" s="75"/>
-      <c r="N76" s="56">
+      <c r="H76" s="1"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="L76" s="73"/>
+      <c r="N76" s="54">
         <v>15.685</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="19">
+      <c r="A77" s="17">
         <v>42121</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="68"/>
-      <c r="L77" s="75"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="L77" s="73"/>
     </row>
     <row r="78" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="19">
+      <c r="A78" s="17">
         <v>42122</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="20">
         <v>1214.5</v>
       </c>
-      <c r="C78" s="86"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="68">
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="66">
         <v>16.645</v>
       </c>
-      <c r="J78" s="68"/>
-      <c r="L78" s="75"/>
+      <c r="J78" s="66"/>
+      <c r="L78" s="73"/>
     </row>
     <row r="79" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="19">
+      <c r="A79" s="17">
         <v>42123</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="87"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="68">
+      <c r="B79" s="20"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="66">
         <v>16.72</v>
       </c>
-      <c r="J79" s="68"/>
-      <c r="L79" s="75"/>
+      <c r="J79" s="66"/>
+      <c r="L79" s="73"/>
     </row>
     <row r="80" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="19">
+      <c r="A80" s="17">
         <v>42124</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="89"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="L80" s="75"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="L80" s="73"/>
     </row>
     <row r="81" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="19">
+      <c r="A81" s="17">
         <v>42125</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="89"/>
-      <c r="G81" s="3">
+      <c r="B81" s="20"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="96">
         <v>1175.2</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
-      <c r="L81" s="75"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="L81" s="73"/>
     </row>
     <row r="82" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="19">
+      <c r="A82" s="17">
         <v>42128</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="L82" s="75"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="L82" s="73"/>
     </row>
     <row r="83" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="19">
+      <c r="A83" s="17">
         <v>42129</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="L83" s="75"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="L83" s="73"/>
     </row>
     <row r="84" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="19">
+      <c r="A84" s="17">
         <v>42130</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="90"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="L84" s="75"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="L84" s="73"/>
     </row>
     <row r="85" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="19">
+      <c r="A85" s="17">
         <v>42131</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="89"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="L85" s="75"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="L85" s="73"/>
     </row>
     <row r="86" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A86" s="19">
+      <c r="A86" s="17">
         <v>42132</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="87"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="L86" s="75"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="88"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="L86" s="73"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A87" s="19">
+      <c r="A87" s="17">
         <v>42135</v>
       </c>
       <c r="C87"/>
       <c r="J87"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A88" s="19">
+      <c r="A88" s="17">
         <v>42136</v>
       </c>
       <c r="C88"/>
       <c r="J88"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A89" s="19">
+      <c r="A89" s="17">
         <v>42137</v>
       </c>
-      <c r="C89" s="52">
+      <c r="C89" s="50">
         <v>1219.0999999999999</v>
       </c>
-      <c r="J89" s="54">
+      <c r="J89" s="52">
         <v>17.245000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A90" s="19">
+      <c r="A90" s="17">
         <v>42138</v>
       </c>
-      <c r="C90" s="52">
+      <c r="C90" s="50">
         <v>1226.2</v>
       </c>
-      <c r="J90" s="54">
+      <c r="J90" s="52">
         <v>17.484999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A91" s="19">
+      <c r="A91" s="17">
         <v>42139</v>
       </c>
-      <c r="C91" s="52">
+      <c r="C91" s="97">
         <v>1226.3</v>
       </c>
-      <c r="J91" s="54">
+      <c r="J91" s="52">
         <v>17.594999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A92" s="19">
+      <c r="A92" s="17">
         <v>42142</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A93" s="19">
+      <c r="A93" s="17">
         <v>42143</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A94" s="19">
+      <c r="A94" s="17">
         <v>42144</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A95" s="19">
+      <c r="A95" s="17">
         <v>42145</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A96" s="19">
+      <c r="A96" s="17">
         <v>42146</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="19">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="17">
         <v>42149</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="19">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="17">
         <v>42150</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="19">
+      <c r="G98" s="95">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="17">
         <v>42151</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="19">
+      <c r="G99" s="95">
+        <v>1186.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="17">
         <v>42152</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="19">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="17">
         <v>42153</v>
       </c>
     </row>
@@ -5486,6 +5516,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/future.xlsx
+++ b/future.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="农产品" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +234,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -289,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,12 +569,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,6 +583,15 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,9 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -980,31 +989,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1024,8 +1033,8 @@
         <v>9</v>
       </c>
       <c r="H2" s="1">
-        <f>5946*0.97</f>
-        <v>5767.62</v>
+        <f>5672*1.03</f>
+        <v>5842.16</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>4</v>
@@ -1571,7 +1580,7 @@
       <c r="C48" s="20"/>
       <c r="D48" s="21"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="17">
         <v>42144</v>
       </c>
@@ -1579,10 +1588,10 @@
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
       <c r="F49" s="1">
-        <v>5704</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="17">
         <v>42145</v>
       </c>
@@ -1590,7 +1599,7 @@
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="17">
         <v>42146</v>
       </c>
@@ -1598,23 +1607,32 @@
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="17">
         <v>42149</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F52" s="1">
+        <v>5672</v>
+      </c>
+      <c r="M52">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="17">
         <v>42150</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="M53">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="17">
         <v>42151</v>
       </c>
@@ -1622,7 +1640,7 @@
       <c r="C54" s="20"/>
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="17">
         <v>42152</v>
       </c>
@@ -1630,7 +1648,7 @@
       <c r="C55" s="20"/>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="17">
         <v>42153</v>
       </c>
@@ -1664,11 +1682,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M90" sqref="M90"/>
+    <sheetView windowProtection="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1683,34 +1701,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1730,8 +1748,8 @@
         <v>9</v>
       </c>
       <c r="H2" s="1">
-        <f>46030*0.97</f>
-        <v>44649.1</v>
+        <f>44300*1.03</f>
+        <v>45629</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>4</v>
@@ -1752,8 +1770,8 @@
         <v>9</v>
       </c>
       <c r="O2">
-        <f>17390*0.97</f>
-        <v>16868.3</v>
+        <f>16525*1.03</f>
+        <v>17020.75</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -2508,7 +2526,7 @@
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
-      <c r="D79" s="21">
+      <c r="D79" s="98">
         <v>46030</v>
       </c>
       <c r="E79" s="41"/>
@@ -2534,7 +2552,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
         <v>42132</v>
       </c>
@@ -2548,7 +2566,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
         <v>42135</v>
       </c>
@@ -2562,7 +2580,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
         <v>42136</v>
       </c>
@@ -2576,7 +2594,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="17">
         <v>42137</v>
       </c>
@@ -2590,7 +2608,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
         <v>42138</v>
       </c>
@@ -2604,7 +2622,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
         <v>42139</v>
       </c>
@@ -2618,7 +2636,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>42142</v>
       </c>
@@ -2632,7 +2650,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="17">
         <v>42143</v>
       </c>
@@ -2646,7 +2664,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>42144</v>
       </c>
@@ -2659,11 +2677,11 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="M89">
+      <c r="N89">
         <v>16670</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>42145</v>
       </c>
@@ -2676,8 +2694,11 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N90">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>42146</v>
       </c>
@@ -2690,6 +2711,43 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A92" s="17">
+        <v>42149</v>
+      </c>
+      <c r="N92">
+        <v>16545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A93" s="17">
+        <v>42150</v>
+      </c>
+      <c r="F93">
+        <v>44400</v>
+      </c>
+      <c r="N93">
+        <v>16525</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A94" s="17">
+        <v>42151</v>
+      </c>
+      <c r="F94">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A95" s="17">
+        <v>42152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A96" s="17">
+        <v>42153</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2720,8 +2778,8 @@
   <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2734,29 +2792,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2776,8 +2834,8 @@
         <v>9</v>
       </c>
       <c r="H2" s="1">
-        <f>14240*1.03</f>
-        <v>14667.2</v>
+        <f>13615*1.03</f>
+        <v>14023.45</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>4</v>
@@ -3948,42 +4006,48 @@
         <v>13615</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>42144</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>42145</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="17">
         <v>42146</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="17">
         <v>42149</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="17">
         <v>42150</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B117" s="1">
+        <v>14370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="17">
         <v>42151</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C118" s="1">
+        <v>14550</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="17">
         <v>42152</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="17">
         <v>42153</v>
       </c>
@@ -4016,7 +4080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
@@ -4029,7 +4093,7 @@
     <col min="4" max="4" width="9.625" style="50"/>
     <col min="5" max="5" width="9.625" style="51"/>
     <col min="6" max="6" width="9" style="50"/>
-    <col min="7" max="7" width="8.75" style="95"/>
+    <col min="7" max="7" width="8.75" style="93"/>
     <col min="8" max="8" width="8.75"/>
     <col min="9" max="10" width="9" style="52"/>
     <col min="11" max="11" width="9.625" style="53"/>
@@ -4039,34 +4103,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4082,7 +4146,7 @@
       <c r="F2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="91" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1">
@@ -4121,7 +4185,7 @@
         <v>1142.9000000000001</v>
       </c>
       <c r="F3" s="65"/>
-      <c r="G3" s="94"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="1"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
@@ -4141,7 +4205,7 @@
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
       <c r="F4" s="65"/>
-      <c r="G4" s="94"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="1"/>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
@@ -4159,7 +4223,7 @@
       <c r="D5" s="70"/>
       <c r="E5" s="71"/>
       <c r="F5" s="65"/>
-      <c r="G5" s="94"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="1"/>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
@@ -5156,7 +5220,7 @@
       <c r="D72" s="70"/>
       <c r="E72" s="71"/>
       <c r="F72" s="65"/>
-      <c r="G72" s="94"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="1"/>
       <c r="I72" s="66"/>
       <c r="J72" s="66"/>
@@ -5174,7 +5238,7 @@
       <c r="D73" s="85"/>
       <c r="E73" s="86"/>
       <c r="F73" s="87"/>
-      <c r="G73" s="96"/>
+      <c r="G73" s="94"/>
       <c r="H73" s="1"/>
       <c r="I73" s="66"/>
       <c r="J73" s="66"/>
@@ -5190,7 +5254,7 @@
       <c r="D74" s="85"/>
       <c r="E74" s="88"/>
       <c r="F74" s="87"/>
-      <c r="G74" s="96"/>
+      <c r="G74" s="94"/>
       <c r="H74" s="1"/>
       <c r="I74" s="66"/>
       <c r="J74" s="66"/>
@@ -5208,7 +5272,7 @@
       <c r="D75" s="85"/>
       <c r="E75" s="88"/>
       <c r="F75" s="87"/>
-      <c r="G75" s="96"/>
+      <c r="G75" s="94"/>
       <c r="H75" s="1"/>
       <c r="I75" s="66"/>
       <c r="J75" s="66"/>
@@ -5224,7 +5288,7 @@
       <c r="D76" s="85"/>
       <c r="E76" s="88"/>
       <c r="F76" s="87"/>
-      <c r="G76" s="96">
+      <c r="G76" s="94">
         <v>1175.5999999999999</v>
       </c>
       <c r="H76" s="1"/>
@@ -5244,7 +5308,7 @@
       <c r="D77" s="85"/>
       <c r="E77" s="88"/>
       <c r="F77" s="87"/>
-      <c r="G77" s="96"/>
+      <c r="G77" s="94"/>
       <c r="H77" s="1"/>
       <c r="I77" s="66"/>
       <c r="J77" s="66"/>
@@ -5261,7 +5325,7 @@
       <c r="D78" s="85"/>
       <c r="E78" s="88"/>
       <c r="F78" s="87"/>
-      <c r="G78" s="96"/>
+      <c r="G78" s="94"/>
       <c r="H78" s="1"/>
       <c r="I78" s="66">
         <v>16.645</v>
@@ -5278,7 +5342,7 @@
       <c r="D79" s="85"/>
       <c r="E79" s="88"/>
       <c r="F79" s="87"/>
-      <c r="G79" s="96"/>
+      <c r="G79" s="94"/>
       <c r="H79" s="1"/>
       <c r="I79" s="66">
         <v>16.72</v>
@@ -5295,7 +5359,7 @@
       <c r="D80" s="85"/>
       <c r="E80" s="88"/>
       <c r="F80" s="87"/>
-      <c r="G80" s="96"/>
+      <c r="G80" s="94"/>
       <c r="H80" s="1"/>
       <c r="I80" s="66"/>
       <c r="J80" s="66"/>
@@ -5310,7 +5374,7 @@
       <c r="D81" s="85"/>
       <c r="E81" s="88"/>
       <c r="F81" s="87"/>
-      <c r="G81" s="96">
+      <c r="G81" s="94">
         <v>1175.2</v>
       </c>
       <c r="H81" s="1"/>
@@ -5327,7 +5391,7 @@
       <c r="D82" s="85"/>
       <c r="E82" s="88"/>
       <c r="F82" s="87"/>
-      <c r="G82" s="96"/>
+      <c r="G82" s="94"/>
       <c r="H82" s="1"/>
       <c r="I82" s="66"/>
       <c r="J82" s="66"/>
@@ -5342,7 +5406,7 @@
       <c r="D83" s="85"/>
       <c r="E83" s="88"/>
       <c r="F83" s="87"/>
-      <c r="G83" s="96"/>
+      <c r="G83" s="94"/>
       <c r="H83" s="1"/>
       <c r="I83" s="66"/>
       <c r="J83" s="66"/>
@@ -5357,7 +5421,7 @@
       <c r="D84" s="85"/>
       <c r="E84" s="88"/>
       <c r="F84" s="87"/>
-      <c r="G84" s="96"/>
+      <c r="G84" s="94"/>
       <c r="H84" s="1"/>
       <c r="I84" s="66"/>
       <c r="J84" s="66"/>
@@ -5372,7 +5436,7 @@
       <c r="D85" s="85"/>
       <c r="E85" s="88"/>
       <c r="F85" s="87"/>
-      <c r="G85" s="96"/>
+      <c r="G85" s="94"/>
       <c r="H85" s="1"/>
       <c r="I85" s="66"/>
       <c r="J85" s="66"/>
@@ -5387,7 +5451,7 @@
       <c r="D86" s="85"/>
       <c r="E86" s="88"/>
       <c r="F86" s="87"/>
-      <c r="G86" s="96"/>
+      <c r="G86" s="94"/>
       <c r="H86" s="1"/>
       <c r="I86" s="66"/>
       <c r="J86" s="66"/>
@@ -5433,7 +5497,7 @@
       <c r="A91" s="17">
         <v>42139</v>
       </c>
-      <c r="C91" s="97">
+      <c r="C91" s="95">
         <v>1226.3</v>
       </c>
       <c r="J91" s="52">
@@ -5474,7 +5538,7 @@
       <c r="A98" s="17">
         <v>42150</v>
       </c>
-      <c r="G98" s="95">
+      <c r="G98" s="93">
         <v>1188</v>
       </c>
     </row>
@@ -5482,7 +5546,7 @@
       <c r="A99" s="17">
         <v>42151</v>
       </c>
-      <c r="G99" s="95">
+      <c r="G99" s="93">
         <v>1186.8</v>
       </c>
     </row>
